--- a/Towers & Upgrades.xlsx
+++ b/Towers & Upgrades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jeremy\Daten\Programmieren\Python\Eigene Projekte\Points TD 2\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4E3695-ED25-4CCE-9A64-BE5A3A8022C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06143AA6-B5CC-4DF8-B268-BCFBF4EE3BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="17295" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Ninja</t>
   </si>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t>No master</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>M / T</t>
+  </si>
+  <si>
+    <t>H / T</t>
+  </si>
+  <si>
+    <t>M / H</t>
   </si>
 </sst>
 </file>
@@ -135,12 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -156,6 +176,1912 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>H / T (Difficulty)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.47098578302712163"/>
+                  <c:y val="-2.5045202682997959E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$2:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E97-42C1-B1AC-EF6AF65BCF56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497875167"/>
+        <c:axId val="497866527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497875167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497866527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497866527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497875167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>M / T</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$P$2:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8EB4-4A67-9826-953417BD37A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497865567"/>
+        <c:axId val="497852607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497865567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497852607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497852607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497865567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E71ABD-1979-FA64-C6AE-E1C5EA42880E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB38043-6169-5D09-B773-CF53C42CFE9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}" name="Waves" displayName="Waves" ref="L1:R14" totalsRowShown="0">
+  <autoFilter ref="L1:R14" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C596E476-F34D-48B8-BAB6-31EDA5A2D2AB}" name="Wave"/>
+    <tableColumn id="2" xr3:uid="{658BD531-EA5F-4C0A-AC63-7FBA171C7055}" name="Time"/>
+    <tableColumn id="3" xr3:uid="{9CF65F60-CD90-44C6-91FC-26B3B481B8DC}" name="Money"/>
+    <tableColumn id="4" xr3:uid="{9BE76415-D71A-4D7A-B911-588FF8B333A1}" name="Health"/>
+    <tableColumn id="5" xr3:uid="{7B3573DF-37A3-4ACC-BB7E-48E3715E80A2}" name="M / T">
+      <calculatedColumnFormula>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{91E23E5A-F67D-4CEA-B1CF-58626B21BBB0}" name="H / T">
+      <calculatedColumnFormula>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3A3EA08A-5B7D-4363-B7B6-F3EEA8916E91}" name="M / H">
+      <calculatedColumnFormula>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,10 +2347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,9 +2361,10 @@
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -459,8 +2386,29 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -488,8 +2436,32 @@
         <f>G2*100/F2</f>
         <v>2</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>405</v>
+      </c>
+      <c r="N2">
+        <v>120</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="Q2">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="R2">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -517,8 +2489,32 @@
         <f t="shared" ref="H3:H7" si="2">G3*100/F3</f>
         <v>2.0083333333333333</v>
       </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>905</v>
+      </c>
+      <c r="N3">
+        <v>150</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="Q3">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="R3">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -546,8 +2542,32 @@
         <f t="shared" si="2"/>
         <v>2.0833333333333335</v>
       </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>1455</v>
+      </c>
+      <c r="N4">
+        <v>200</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="Q4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="R4">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -575,8 +2595,32 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1105</v>
+      </c>
+      <c r="N5">
+        <v>200</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Q5">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.09</v>
+      </c>
+      <c r="R5">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -604,8 +2648,32 @@
         <f t="shared" si="2"/>
         <v>1.1428571428571428</v>
       </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1405</v>
+      </c>
+      <c r="N6">
+        <v>240</v>
+      </c>
+      <c r="O6">
+        <v>140</v>
+      </c>
+      <c r="P6">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="Q6">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.714</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -633,13 +2701,139 @@
         <f t="shared" si="2"/>
         <v>1.1111111111111112</v>
       </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>1545</v>
+      </c>
+      <c r="N7">
+        <v>280</v>
+      </c>
+      <c r="O7">
+        <v>180</v>
+      </c>
+      <c r="P7">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Q7">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="R7">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.556</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>1065</v>
+      </c>
+      <c r="N8">
+        <v>240</v>
+      </c>
+      <c r="O8">
+        <v>140</v>
+      </c>
+      <c r="P8">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q8">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="R8">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>1645</v>
+      </c>
+      <c r="N9">
+        <v>330</v>
+      </c>
+      <c r="O9">
+        <v>230</v>
+      </c>
+      <c r="P9">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="Q9">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R9">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.4350000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>1045</v>
+      </c>
+      <c r="N10">
+        <v>260</v>
+      </c>
+      <c r="O10">
+        <v>160</v>
+      </c>
+      <c r="P10">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.249</v>
+      </c>
+      <c r="Q10">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.153</v>
+      </c>
+      <c r="R10">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>1275</v>
+      </c>
+      <c r="N11">
+        <v>320</v>
+      </c>
+      <c r="O11">
+        <v>220</v>
+      </c>
+      <c r="P11">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.251</v>
+      </c>
+      <c r="Q11">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="R11">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.4550000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -664,8 +2858,32 @@
       <c r="H12" t="s">
         <v>12</v>
       </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>1605</v>
+      </c>
+      <c r="N12">
+        <v>400</v>
+      </c>
+      <c r="O12">
+        <v>300</v>
+      </c>
+      <c r="P12">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.249</v>
+      </c>
+      <c r="Q12">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.187</v>
+      </c>
+      <c r="R12">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.333</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -693,8 +2911,32 @@
         <f>G13*100/F13</f>
         <v>2.3809523809523809</v>
       </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>1505</v>
+      </c>
+      <c r="N13">
+        <v>400</v>
+      </c>
+      <c r="O13">
+        <v>300</v>
+      </c>
+      <c r="P13">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="Q13">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="R13">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.333</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -722,8 +2964,32 @@
         <f t="shared" ref="H14:H18" si="5">G14*100/F14</f>
         <v>2.4965517241379311</v>
       </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>1155</v>
+      </c>
+      <c r="N14">
+        <v>350</v>
+      </c>
+      <c r="O14">
+        <v>250</v>
+      </c>
+      <c r="P14">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="Q14">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.216</v>
+      </c>
+      <c r="R14">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -752,7 +3018,7 @@
         <v>2.2321428571428572</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -782,7 +3048,7 @@
         <v>1.0582010582010584</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -810,9 +3076,8 @@
         <f t="shared" si="5"/>
         <v>1.5466666666666666</v>
       </c>
-      <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -843,5 +3108,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Towers & Upgrades.xlsx
+++ b/Towers & Upgrades.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jeremy\Daten\Programmieren\Python\Eigene Projekte\Points TD 2\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06143AA6-B5CC-4DF8-B268-BCFBF4EE3BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B583553-6414-4136-A461-96F9FE6F6F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="17295" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="17520" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Alte Kopie" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>Ninja</t>
   </si>
@@ -103,11 +104,38 @@
   <si>
     <t>M / H</t>
   </si>
+  <si>
+    <t>Time try max 1000</t>
+  </si>
+  <si>
+    <t>Difficulty:</t>
+  </si>
+  <si>
+    <t>3.6 H/T</t>
+  </si>
+  <si>
+    <t>20) 10-&gt;15t</t>
+  </si>
+  <si>
+    <t>Nach 5min -&gt; Game finished</t>
+  </si>
+  <si>
+    <t>Current fast -&gt; Slow</t>
+  </si>
+  <si>
+    <t>Fast -&gt; Run tick Code twice</t>
+  </si>
+  <si>
+    <t>ideal: 800 +/-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,16 +184,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -321,48 +358,99 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$Q$2:$Q$14</c:f>
+              <c:f>Tabelle1!$Q$2:$Q$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11700000000000001</c:v>
+                  <c:v>8.6999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13100000000000001</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.153</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.187</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.19900000000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.216</c:v>
+                <c:pt idx="14">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.361</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5669999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,7 +545,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -644,54 +732,106 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$P$2:$P$14</c:f>
+              <c:f>Tabelle1!$P$2:$P$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.29599999999999999</c:v>
+                  <c:v>0.14899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16600000000000001</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13700000000000001</c:v>
+                  <c:v>0.17699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18099999999999999</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17100000000000001</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18099999999999999</c:v>
+                  <c:v>0.19700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.23100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.249</c:v>
+                  <c:v>0.22600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.251</c:v>
+                  <c:v>0.22800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.249</c:v>
+                  <c:v>0.254</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30299999999999999</c:v>
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,6 +840,864 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8EB4-4A67-9826-953417BD37A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497865567"/>
+        <c:axId val="497852607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497865567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497852607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497852607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497865567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>H / T (Difficulty)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.47098578302712163"/>
+                  <c:y val="-2.5045202682997959E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Alte Kopie'!$Q$2:$Q$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.679</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.895</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0419999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0661-4376-904C-483F7CC9729E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497875167"/>
+        <c:axId val="497866527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497875167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497866527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497866527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497875167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>M / T</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Alte Kopie'!$P$2:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDCC-4726-9685-2BF72555DC37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -953,6 +1951,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1985,20 +3063,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2025,16 +4135,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2062,9 +4172,90 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE09046-4B3A-4520-8E56-D6EED8105E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334AB1F1-91D6-447C-8019-7B142AEFF4BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}" name="Waves" displayName="Waves" ref="L1:R14" totalsRowShown="0">
-  <autoFilter ref="L1:R14" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}" name="Waves" displayName="Waves" ref="L1:R31" totalsRowShown="0">
+  <autoFilter ref="L1:R31" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C596E476-F34D-48B8-BAB6-31EDA5A2D2AB}" name="Wave"/>
     <tableColumn id="2" xr3:uid="{658BD531-EA5F-4C0A-AC63-7FBA171C7055}" name="Time"/>
@@ -2073,11 +4264,33 @@
     <tableColumn id="5" xr3:uid="{7B3573DF-37A3-4ACC-BB7E-48E3715E80A2}" name="M / T">
       <calculatedColumnFormula>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{91E23E5A-F67D-4CEA-B1CF-58626B21BBB0}" name="H / T">
+    <tableColumn id="6" xr3:uid="{91E23E5A-F67D-4CEA-B1CF-58626B21BBB0}" name="H / T" dataDxfId="1">
       <calculatedColumnFormula>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{3A3EA08A-5B7D-4363-B7B6-F3EEA8916E91}" name="M / H">
       <calculatedColumnFormula>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{247F269B-C911-426A-93DD-F6E4E1B86882}" name="Waves3" displayName="Waves3" ref="L1:R41" totalsRowShown="0">
+  <autoFilter ref="L1:R41" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{EE1B226B-E858-492C-8F52-FCE1E26330FF}" name="Wave"/>
+    <tableColumn id="2" xr3:uid="{B4955953-059F-4514-AE97-4F32E1C1133E}" name="Time"/>
+    <tableColumn id="3" xr3:uid="{00A9E8F4-09F8-4098-97C3-174FCFA04648}" name="Money"/>
+    <tableColumn id="4" xr3:uid="{E977F5CF-B82C-4801-AFC2-925FB53BBDD9}" name="Health"/>
+    <tableColumn id="5" xr3:uid="{2C91DF4B-5192-4C4B-B806-6E93715A31D0}" name="M / T">
+      <calculatedColumnFormula>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{2474BB5B-8C9E-4CF7-80E8-BB831343E452}" name="H / T" dataDxfId="0">
+      <calculatedColumnFormula>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{087609F2-9BF4-4046-B6E3-AC17A8129A43}" name="M / H">
+      <calculatedColumnFormula>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2347,10 +4560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,7 +4577,7 @@
     <col min="14" max="14" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -2408,7 +4621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G2">
         <f>100/C2*B2*E2</f>
@@ -2434,34 +4647,34 @@
       </c>
       <c r="H2" s="2">
         <f>G2*100/F2</f>
-        <v>2</v>
+        <v>1.5625</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>405</v>
+        <v>1005</v>
       </c>
       <c r="N2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="P2">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="Q2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="Q2" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>4.9000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R2">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2479,7 +4692,7 @@
         <v>2.41</v>
       </c>
       <c r="F3" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="1">100/C3*B3*E3</f>
@@ -2487,13 +4700,13 @@
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="2">G3*100/F3</f>
-        <v>2.0083333333333333</v>
+        <v>1.7214285714285715</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>905</v>
+        <v>855</v>
       </c>
       <c r="N3">
         <v>150</v>
@@ -2503,18 +4716,18 @@
       </c>
       <c r="P3">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="Q3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q3" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>5.5E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="R3">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -2540,34 +4753,34 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" si="2"/>
-        <v>2.0833333333333335</v>
+        <v>1.6025641025641026</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>1455</v>
+        <v>905</v>
       </c>
       <c r="N4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P4">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="Q4">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="Q4" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>6.9000000000000006E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="R4">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>2</v>
+        <v>2.6669999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2585,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -2593,34 +4806,34 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>1105</v>
+        <v>825</v>
       </c>
       <c r="N5">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P5">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="Q5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Q5" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.09</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="R5">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>2</v>
+        <v>2.6669999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2638,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -2646,34 +4859,37 @@
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>1.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6">
-        <v>1405</v>
+        <v>755</v>
       </c>
       <c r="N6">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="O6">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="P6">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="Q6">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Q6" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.1</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="R6">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.714</v>
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2691,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -2699,112 +4915,118 @@
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>1.1111111111111112</v>
+        <v>0.95238095238095244</v>
       </c>
       <c r="L7">
         <v>6</v>
       </c>
       <c r="M7">
-        <v>1545</v>
+        <v>915</v>
       </c>
       <c r="N7">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="O7">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="P7">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="Q7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="Q7" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.11700000000000001</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="R7">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.556</v>
+        <v>2.25</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L8">
         <v>7</v>
       </c>
       <c r="M8">
-        <v>1065</v>
+        <v>735</v>
       </c>
       <c r="N8">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="O8">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="P8">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="Q8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="Q8" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.13100000000000001</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R8">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.714</v>
+        <v>2.4289999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>8</v>
       </c>
       <c r="M9">
-        <v>1645</v>
+        <v>965</v>
       </c>
       <c r="N9">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="O9">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="P9">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="Q9">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="Q9" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.14000000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="R9">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.4350000000000001</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L10">
         <v>9</v>
       </c>
       <c r="M10">
-        <v>1045</v>
+        <v>885</v>
       </c>
       <c r="N10">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="O10">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="P10">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.249</v>
-      </c>
-      <c r="Q10">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="Q10" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.153</v>
+        <v>0.113</v>
       </c>
       <c r="R10">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.625</v>
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -2812,28 +5034,31 @@
         <v>10</v>
       </c>
       <c r="M11">
-        <v>1275</v>
+        <v>965</v>
       </c>
       <c r="N11">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="O11">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="P11">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.251</v>
-      </c>
-      <c r="Q11">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="Q11" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.17299999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="R11">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.4550000000000001</v>
+        <v>1.833</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2862,28 +5087,28 @@
         <v>11</v>
       </c>
       <c r="M12">
-        <v>1605</v>
+        <v>865</v>
       </c>
       <c r="N12">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="O12">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="P12">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.249</v>
-      </c>
-      <c r="Q12">
+        <v>0.254</v>
+      </c>
+      <c r="Q12" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.187</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="R12">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>700</v>
+        <v>930</v>
       </c>
       <c r="G13">
         <f>100/C13*B13*E13</f>
@@ -2909,34 +5134,37 @@
       </c>
       <c r="H13" s="2">
         <f>G13*100/F13</f>
-        <v>2.3809523809523809</v>
+        <v>1.7921146953405018</v>
       </c>
       <c r="L13">
         <v>12</v>
       </c>
       <c r="M13">
-        <v>1505</v>
+        <v>785</v>
       </c>
       <c r="N13">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="O13">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="P13">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="Q13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q13" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.19900000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="R13">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.333</v>
+        <v>1.833</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2944,7 +5172,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -2954,42 +5182,42 @@
         <v>3.62</v>
       </c>
       <c r="F14" s="1">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14:G18" si="4">100/C14*B14*E14</f>
-        <v>36.200000000000003</v>
+        <v>35.032258064516128</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ref="H14:H18" si="5">G14*100/F14</f>
-        <v>2.4965517241379311</v>
+        <v>1.7965260545905706</v>
       </c>
       <c r="L14">
         <v>13</v>
       </c>
       <c r="M14">
-        <v>1155</v>
+        <v>585</v>
       </c>
       <c r="N14">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="O14">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="P14">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="Q14">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Q14" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.216</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="R14">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3007,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1120</v>
+        <v>1410</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
@@ -3015,10 +5243,34 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
-        <v>2.2321428571428572</v>
+        <v>1.7730496453900708</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>755</v>
+      </c>
+      <c r="N15">
+        <v>250</v>
+      </c>
+      <c r="O15">
+        <v>150</v>
+      </c>
+      <c r="P15">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="R15">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.667</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3036,8 +5288,8 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <f>500+300+400+450-300</f>
-        <v>1350</v>
+        <f>550+350+450+500</f>
+        <v>1850</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
@@ -3045,10 +5297,34 @@
       </c>
       <c r="H16" s="2">
         <f t="shared" si="5"/>
-        <v>1.0582010582010584</v>
+        <v>0.77220077220077221</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>785</v>
+      </c>
+      <c r="N16">
+        <v>280</v>
+      </c>
+      <c r="O16">
+        <v>185</v>
+      </c>
+      <c r="P16">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="R16">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.514</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3066,7 +5342,7 @@
         <v>1.74</v>
       </c>
       <c r="F17" s="1">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
@@ -3074,10 +5350,37 @@
       </c>
       <c r="H17" s="2">
         <f t="shared" si="5"/>
-        <v>1.5466666666666666</v>
+        <v>1.2654545454545454</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>825</v>
+      </c>
+      <c r="N17">
+        <v>320</v>
+      </c>
+      <c r="O17">
+        <v>220</v>
+      </c>
+      <c r="P17">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="R17">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3095,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
@@ -3103,10 +5406,1936 @@
       </c>
       <c r="H18" s="2">
         <f t="shared" si="5"/>
-        <v>0.82644628099173556</v>
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>925</v>
+      </c>
+      <c r="N18">
+        <v>340</v>
+      </c>
+      <c r="O18">
+        <v>280</v>
+      </c>
+      <c r="P18">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="R18">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>830</v>
+      </c>
+      <c r="N19">
+        <v>350</v>
+      </c>
+      <c r="O19">
+        <v>300</v>
+      </c>
+      <c r="P19">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="R19">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>745</v>
+      </c>
+      <c r="N20">
+        <v>380</v>
+      </c>
+      <c r="O20">
+        <v>320</v>
+      </c>
+      <c r="P20">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.51</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.43</v>
+      </c>
+      <c r="R20">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.1879999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>795</v>
+      </c>
+      <c r="N21">
+        <v>400</v>
+      </c>
+      <c r="O21">
+        <v>400</v>
+      </c>
+      <c r="P21">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.503</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.503</v>
+      </c>
+      <c r="R21">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>705</v>
+      </c>
+      <c r="N22">
+        <v>400</v>
+      </c>
+      <c r="O22">
+        <v>400</v>
+      </c>
+      <c r="P22">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="R22">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>805</v>
+      </c>
+      <c r="N23">
+        <v>440</v>
+      </c>
+      <c r="O23">
+        <v>500</v>
+      </c>
+      <c r="P23">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.621</v>
+      </c>
+      <c r="R23">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>905</v>
+      </c>
+      <c r="N24">
+        <v>600</v>
+      </c>
+      <c r="O24">
+        <v>650</v>
+      </c>
+      <c r="P24">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="R24">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>765</v>
+      </c>
+      <c r="N25">
+        <v>528</v>
+      </c>
+      <c r="O25">
+        <v>620</v>
+      </c>
+      <c r="P25">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.69</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.81</v>
+      </c>
+      <c r="R25">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>665</v>
+      </c>
+      <c r="N26">
+        <v>440</v>
+      </c>
+      <c r="O26">
+        <v>600</v>
+      </c>
+      <c r="P26">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="R26">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>600</v>
+      </c>
+      <c r="N27">
+        <v>460</v>
+      </c>
+      <c r="O27">
+        <v>600</v>
+      </c>
+      <c r="P27">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>705</v>
+      </c>
+      <c r="N28">
+        <v>540</v>
+      </c>
+      <c r="O28">
+        <v>800</v>
+      </c>
+      <c r="P28">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.135</v>
+      </c>
+      <c r="R28">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>885</v>
+      </c>
+      <c r="N29">
+        <v>810</v>
+      </c>
+      <c r="O29">
+        <v>1100</v>
+      </c>
+      <c r="P29">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="R29">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>735</v>
+      </c>
+      <c r="N30">
+        <v>680</v>
+      </c>
+      <c r="O30">
+        <v>1000</v>
+      </c>
+      <c r="P30">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.361</v>
+      </c>
+      <c r="R30">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>670</v>
+      </c>
+      <c r="N31">
+        <v>800</v>
+      </c>
+      <c r="O31">
+        <v>1050</v>
+      </c>
+      <c r="P31">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.194</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="R31">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.76200000000000001</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2611AF0A-4669-45BC-A52D-B98A4F110345}">
+  <dimension ref="A1:AC41"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31:Q31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(D2^0.8, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>270</v>
+      </c>
+      <c r="G2">
+        <f>100/C2*B2*E2</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2*100/F2</f>
+        <v>1.8518518518518519</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>405</v>
+      </c>
+      <c r="N2">
+        <v>120</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="R2">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">ROUND(D3^0.8, 2)</f>
+        <v>2.41</v>
+      </c>
+      <c r="F3" s="1">
+        <v>700</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">100/C3*B3*E3</f>
+        <v>12.684210526315791</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H7" si="2">G3*100/F3</f>
+        <v>1.8120300751879703</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>905</v>
+      </c>
+      <c r="N3">
+        <v>150</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="R3">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>450</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8518518518518519</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>1825</v>
+      </c>
+      <c r="N4">
+        <v>224</v>
+      </c>
+      <c r="O4">
+        <v>124</v>
+      </c>
+      <c r="P4">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.123</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R4">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>550</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1805</v>
+      </c>
+      <c r="N5">
+        <v>260</v>
+      </c>
+      <c r="O5">
+        <v>160</v>
+      </c>
+      <c r="P5">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="R5">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>800</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1769</v>
+      </c>
+      <c r="N6">
+        <v>271</v>
+      </c>
+      <c r="O6">
+        <v>171</v>
+      </c>
+      <c r="P6">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.153</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="R6">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.585</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>350</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95238095238095244</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>1805</v>
+      </c>
+      <c r="N7">
+        <v>301</v>
+      </c>
+      <c r="O7">
+        <v>201</v>
+      </c>
+      <c r="P7">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.111</v>
+      </c>
+      <c r="R7">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.498</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>1797</v>
+      </c>
+      <c r="N8">
+        <v>324</v>
+      </c>
+      <c r="O8">
+        <v>224</v>
+      </c>
+      <c r="P8">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.18</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.125</v>
+      </c>
+      <c r="R8">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>1665</v>
+      </c>
+      <c r="N9">
+        <v>330</v>
+      </c>
+      <c r="O9">
+        <v>230</v>
+      </c>
+      <c r="P9">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="R9">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.4350000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>1065</v>
+      </c>
+      <c r="N10">
+        <v>260</v>
+      </c>
+      <c r="O10">
+        <v>160</v>
+      </c>
+      <c r="P10">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.15</v>
+      </c>
+      <c r="R10">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.625</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>1305</v>
+      </c>
+      <c r="N11">
+        <v>320</v>
+      </c>
+      <c r="O11">
+        <v>220</v>
+      </c>
+      <c r="P11">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.245</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="R11">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>1490</v>
+      </c>
+      <c r="N12">
+        <v>370</v>
+      </c>
+      <c r="O12">
+        <v>270</v>
+      </c>
+      <c r="P12">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.248</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="R12">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>ROUND(D13^0.8, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>790</v>
+      </c>
+      <c r="G13">
+        <f>100/C13*B13*E13</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H13" s="2">
+        <f>G13*100/F13</f>
+        <v>2.109704641350211</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>1505</v>
+      </c>
+      <c r="N13">
+        <v>400</v>
+      </c>
+      <c r="O13">
+        <v>300</v>
+      </c>
+      <c r="P13">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="R13">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.333</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E18" si="3">ROUND(D14^0.8, 2)</f>
+        <v>3.62</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1640</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G18" si="4">100/C14*B14*E14</f>
+        <v>37.448275862068968</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ref="H14:H18" si="5">G14*100/F14</f>
+        <v>2.2834314550042052</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>1155</v>
+      </c>
+      <c r="N14">
+        <v>350</v>
+      </c>
+      <c r="O14">
+        <v>250</v>
+      </c>
+      <c r="P14">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.216</v>
+      </c>
+      <c r="R14">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1270</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9685039370078741</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>1338</v>
+      </c>
+      <c r="N15">
+        <v>411</v>
+      </c>
+      <c r="O15">
+        <v>311</v>
+      </c>
+      <c r="P15">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.307</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="R15">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.3220000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f>550+350+450+500</f>
+        <v>1850</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="5"/>
+        <v>0.77220077220077221</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>845</v>
+      </c>
+      <c r="N16">
+        <v>330</v>
+      </c>
+      <c r="O16">
+        <v>232</v>
+      </c>
+      <c r="P16">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R16">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.4219999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>1.74</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2200</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>27.84</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2654545454545454</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>805</v>
+      </c>
+      <c r="N17">
+        <v>350</v>
+      </c>
+      <c r="O17">
+        <v>250</v>
+      </c>
+      <c r="P17">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.435</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.311</v>
+      </c>
+      <c r="R17">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.4</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>700</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="5"/>
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>1205</v>
+      </c>
+      <c r="N18">
+        <v>520</v>
+      </c>
+      <c r="O18">
+        <v>420</v>
+      </c>
+      <c r="P18">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.432</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="R18">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>735</v>
+      </c>
+      <c r="N19">
+        <v>370</v>
+      </c>
+      <c r="O19">
+        <v>280</v>
+      </c>
+      <c r="P19">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.503</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="R19">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.321</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>1285</v>
+      </c>
+      <c r="N20">
+        <v>630</v>
+      </c>
+      <c r="O20">
+        <v>550</v>
+      </c>
+      <c r="P20">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.49</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="R20">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.145</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>1355</v>
+      </c>
+      <c r="N21">
+        <v>710</v>
+      </c>
+      <c r="O21">
+        <v>630</v>
+      </c>
+      <c r="P21">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="R21">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>1205</v>
+      </c>
+      <c r="N22">
+        <v>650</v>
+      </c>
+      <c r="O22">
+        <v>600</v>
+      </c>
+      <c r="P22">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.498</v>
+      </c>
+      <c r="R22">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>1155</v>
+      </c>
+      <c r="N23">
+        <v>600</v>
+      </c>
+      <c r="O23">
+        <v>625</v>
+      </c>
+      <c r="P23">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="R23">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>1385</v>
+      </c>
+      <c r="N24">
+        <v>820</v>
+      </c>
+      <c r="O24">
+        <v>840</v>
+      </c>
+      <c r="P24">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="R24">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>905</v>
+      </c>
+      <c r="N25">
+        <v>600</v>
+      </c>
+      <c r="O25">
+        <v>600</v>
+      </c>
+      <c r="P25">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="R25">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>1405</v>
+      </c>
+      <c r="N26">
+        <v>850</v>
+      </c>
+      <c r="O26">
+        <v>1000</v>
+      </c>
+      <c r="P26">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="R26">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>1293</v>
+      </c>
+      <c r="N27">
+        <v>836</v>
+      </c>
+      <c r="O27">
+        <v>1000</v>
+      </c>
+      <c r="P27">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="R27">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>1373</v>
+      </c>
+      <c r="N28">
+        <v>891</v>
+      </c>
+      <c r="O28">
+        <v>1130</v>
+      </c>
+      <c r="P28">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="R28">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>1293</v>
+      </c>
+      <c r="N29">
+        <v>796</v>
+      </c>
+      <c r="O29">
+        <v>1140</v>
+      </c>
+      <c r="P29">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="R29">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>1375</v>
+      </c>
+      <c r="N30">
+        <v>1012</v>
+      </c>
+      <c r="O30">
+        <v>1320</v>
+      </c>
+      <c r="P30">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.96</v>
+      </c>
+      <c r="R30">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>1329</v>
+      </c>
+      <c r="N31">
+        <v>932</v>
+      </c>
+      <c r="O31">
+        <v>1360</v>
+      </c>
+      <c r="P31">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="R31">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>1349</v>
+      </c>
+      <c r="N32">
+        <v>934</v>
+      </c>
+      <c r="O32">
+        <v>1500</v>
+      </c>
+      <c r="P32">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="R32">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>1307</v>
+      </c>
+      <c r="N33">
+        <v>1010</v>
+      </c>
+      <c r="O33">
+        <v>1540</v>
+      </c>
+      <c r="P33">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="R33">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>1300</v>
+      </c>
+      <c r="N34">
+        <v>1150</v>
+      </c>
+      <c r="O34">
+        <v>1650</v>
+      </c>
+      <c r="P34">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="R34">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>1285</v>
+      </c>
+      <c r="N35">
+        <v>1140</v>
+      </c>
+      <c r="O35">
+        <v>1760</v>
+      </c>
+      <c r="P35">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.37</v>
+      </c>
+      <c r="R35">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>1297</v>
+      </c>
+      <c r="N36">
+        <v>828</v>
+      </c>
+      <c r="O36">
+        <v>1880</v>
+      </c>
+      <c r="P36">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="R36">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="M37">
+        <v>1373</v>
+      </c>
+      <c r="N37">
+        <v>765</v>
+      </c>
+      <c r="O37">
+        <v>2150</v>
+      </c>
+      <c r="P37">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="R37">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>1310</v>
+      </c>
+      <c r="N38">
+        <v>1010</v>
+      </c>
+      <c r="O38">
+        <v>2200</v>
+      </c>
+      <c r="P38">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.679</v>
+      </c>
+      <c r="R38">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>1285</v>
+      </c>
+      <c r="N39">
+        <v>1050</v>
+      </c>
+      <c r="O39">
+        <v>2300</v>
+      </c>
+      <c r="P39">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.79</v>
+      </c>
+      <c r="R39">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>1356</v>
+      </c>
+      <c r="N40">
+        <v>999</v>
+      </c>
+      <c r="O40">
+        <v>2570</v>
+      </c>
+      <c r="P40">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.895</v>
+      </c>
+      <c r="R40">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>1601</v>
+      </c>
+      <c r="N41">
+        <v>1504</v>
+      </c>
+      <c r="O41">
+        <v>3270</v>
+      </c>
+      <c r="P41">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="R41">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">

--- a/Towers & Upgrades.xlsx
+++ b/Towers & Upgrades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jeremy\Daten\Programmieren\Python\Eigene Projekte\Points TD 2\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B583553-6414-4136-A461-96F9FE6F6F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA5655E-581A-4962-A67A-EC06BC070106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17520" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>Ninja</t>
   </si>
@@ -105,28 +105,13 @@
     <t>M / H</t>
   </si>
   <si>
-    <t>Time try max 1000</t>
+    <t>M/TH</t>
   </si>
   <si>
-    <t>Difficulty:</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>3.6 H/T</t>
-  </si>
-  <si>
-    <t>20) 10-&gt;15t</t>
-  </si>
-  <si>
-    <t>Nach 5min -&gt; Game finished</t>
-  </si>
-  <si>
-    <t>Current fast -&gt; Slow</t>
-  </si>
-  <si>
-    <t>Fast -&gt; Run tick Code twice</t>
-  </si>
-  <si>
-    <t>ideal: 800 +/-</t>
+    <t>Curve H/T</t>
   </si>
 </sst>
 </file>
@@ -172,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -180,22 +165,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -358,10 +388,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$Q$2:$Q$31</c:f>
+              <c:f>Tabelle1!$Q$2:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -417,13 +447,13 @@
                   <c:v>0.36099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.43</c:v>
+                  <c:v>0.43099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56699999999999995</c:v>
+                  <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.621</c:v>
@@ -435,13 +465,13 @@
                   <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.90200000000000002</c:v>
+                  <c:v>0.89800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.135</c:v>
+                  <c:v>1.133</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.2430000000000001</c:v>
@@ -450,7 +480,37 @@
                   <c:v>1.361</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5669999999999999</c:v>
+                  <c:v>1.5629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.776</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.905</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0209999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,9 +726,58 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="de-CH">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>M / T </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t>--- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> M / H  </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="de-CH"/>
-              <a:t>M / T</a:t>
+              <a:t>---  </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>M/TH</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -739,10 +848,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$P$2:$P$31</c:f>
+              <c:f>Tabelle1!$P$2:$P$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0.14899999999999999</c:v>
                 </c:pt>
@@ -780,58 +889,88 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34200000000000003</c:v>
+                  <c:v>0.28599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.33100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35699999999999998</c:v>
+                  <c:v>0.36299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.38800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36799999999999999</c:v>
+                  <c:v>0.41099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.42199999999999999</c:v>
+                  <c:v>0.48199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51</c:v>
+                  <c:v>0.53300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.503</c:v>
+                  <c:v>0.55300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56699999999999995</c:v>
+                  <c:v>0.60699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.66300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.69</c:v>
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0.78100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.76700000000000002</c:v>
+                  <c:v>0.86299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.76600000000000001</c:v>
+                  <c:v>0.91200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91500000000000004</c:v>
+                  <c:v>0.98299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.92500000000000004</c:v>
+                  <c:v>1.0069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.194</c:v>
+                  <c:v>1.359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.272</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.216</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.288</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5940000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,6 +979,323 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8EB4-4A67-9826-953417BD37A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$R$2:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.833</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.357</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.238</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D94F-4B78-AA03-13F1014B78E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$S$2:$S$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>2.110766511004619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4810764252159561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2824211248367834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5037468096694409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7358822754666079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1994111254096289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7644743345149241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0725388601036268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2598870056497176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.081156522472134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3217526522376981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.558364387497591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3328473740792175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7036310626745901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6692505388119132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6150782544028783</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4550641705247003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7824109358536178</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6024001945294217</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.767295597484277</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6135315192557318</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4999517760867214</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6004349410587939</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7876435532498487</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6938388145450194</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.049397993866986</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8473669294607737</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9640098280525917</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.183789753094695</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5098911575004714</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2635455240681388</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4146359263287054</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0951312035156961</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9870967741935481</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3998775603907063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8435546534679408</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4321608040201004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6022407941181953</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9808496933749566</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9595194521967643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D94F-4B78-AA03-13F1014B78E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4099,16 +4555,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4135,16 +4591,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4254,9 +4710,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}" name="Waves" displayName="Waves" ref="L1:R31" totalsRowShown="0">
-  <autoFilter ref="L1:R31" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}" name="Waves" displayName="Waves" ref="L1:S41" totalsRowShown="0">
+  <autoFilter ref="L1:S41" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C596E476-F34D-48B8-BAB6-31EDA5A2D2AB}" name="Wave"/>
     <tableColumn id="2" xr3:uid="{658BD531-EA5F-4C0A-AC63-7FBA171C7055}" name="Time"/>
     <tableColumn id="3" xr3:uid="{9CF65F60-CD90-44C6-91FC-26B3B481B8DC}" name="Money"/>
@@ -4264,11 +4720,14 @@
     <tableColumn id="5" xr3:uid="{7B3573DF-37A3-4ACC-BB7E-48E3715E80A2}" name="M / T">
       <calculatedColumnFormula>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{91E23E5A-F67D-4CEA-B1CF-58626B21BBB0}" name="H / T" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{91E23E5A-F67D-4CEA-B1CF-58626B21BBB0}" name="H / T" dataDxfId="2">
       <calculatedColumnFormula>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{3A3EA08A-5B7D-4363-B7B6-F3EEA8916E91}" name="M / H">
       <calculatedColumnFormula>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7E68E024-47D5-4ECA-9534-8FAC2F31D088}" name="M/TH" dataDxfId="0">
+      <calculatedColumnFormula>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4286,7 +4745,7 @@
     <tableColumn id="5" xr3:uid="{2C91DF4B-5192-4C4B-B806-6E93715A31D0}" name="M / T">
       <calculatedColumnFormula>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2474BB5B-8C9E-4CF7-80E8-BB831343E452}" name="H / T" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{2474BB5B-8C9E-4CF7-80E8-BB831343E452}" name="H / T" dataDxfId="1">
       <calculatedColumnFormula>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{087609F2-9BF4-4046-B6E3-AC17A8129A43}" name="M / H">
@@ -4560,10 +5019,1933 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(D2^0.8, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>280</v>
+      </c>
+      <c r="G2">
+        <f>100/C2*B2*E2</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2*100/F2</f>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1005</v>
+      </c>
+      <c r="N2">
+        <v>150</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="R2">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>3</v>
+      </c>
+      <c r="S2" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.110766511004619</v>
+      </c>
+      <c r="U2">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.14150000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">ROUND(D3^0.8, 2)</f>
+        <v>2.41</v>
+      </c>
+      <c r="F3" s="1">
+        <v>680</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">100/C3*B3*E3</f>
+        <v>12.05</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H7" si="2">G3*100/F3</f>
+        <v>1.7720588235294117</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>855</v>
+      </c>
+      <c r="N3">
+        <v>150</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R3">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.4810764252159561</v>
+      </c>
+      <c r="U3">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.11280000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>480</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7361111111111112</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>905</v>
+      </c>
+      <c r="N4">
+        <v>160</v>
+      </c>
+      <c r="O4">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="R4">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="S4" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.2824211248367834</v>
+      </c>
+      <c r="U4">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>8.950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>550</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>825</v>
+      </c>
+      <c r="N5">
+        <v>160</v>
+      </c>
+      <c r="O5">
+        <v>60</v>
+      </c>
+      <c r="P5">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="R5">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="S5" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.5037468096694409</v>
+      </c>
+      <c r="U5">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>7.1600000000000011E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>800</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>755</v>
+      </c>
+      <c r="N6">
+        <v>160</v>
+      </c>
+      <c r="O6">
+        <v>60</v>
+      </c>
+      <c r="P6">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="R6">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="S6" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.7358822754666079</v>
+      </c>
+      <c r="U6">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>5.9100000000000014E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>350</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95238095238095244</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>915</v>
+      </c>
+      <c r="N7">
+        <v>180</v>
+      </c>
+      <c r="O7">
+        <v>80</v>
+      </c>
+      <c r="P7">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="R7">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>2.25</v>
+      </c>
+      <c r="S7" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.1994111254096289</v>
+      </c>
+      <c r="U7">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>5.2000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>735</v>
+      </c>
+      <c r="N8">
+        <v>170</v>
+      </c>
+      <c r="O8">
+        <v>70</v>
+      </c>
+      <c r="P8">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R8">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="S8" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.7644743345149241</v>
+      </c>
+      <c r="U8">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>5.0300000000000011E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>965</v>
+      </c>
+      <c r="N9">
+        <v>200</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.104</v>
+      </c>
+      <c r="R9">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>2</v>
+      </c>
+      <c r="S9" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.0725388601036268</v>
+      </c>
+      <c r="U9">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>5.400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>885</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.113</v>
+      </c>
+      <c r="R10">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>2</v>
+      </c>
+      <c r="S10" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.2598870056497176</v>
+      </c>
+      <c r="U10">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>6.3100000000000017E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>965</v>
+      </c>
+      <c r="N11">
+        <v>220</v>
+      </c>
+      <c r="O11">
+        <v>120</v>
+      </c>
+      <c r="P11">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.124</v>
+      </c>
+      <c r="R11">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.833</v>
+      </c>
+      <c r="S11" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.081156522472134</v>
+      </c>
+      <c r="U11">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>7.760000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>865</v>
+      </c>
+      <c r="N12">
+        <v>220</v>
+      </c>
+      <c r="O12">
+        <v>120</v>
+      </c>
+      <c r="P12">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.254</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="R12">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.833</v>
+      </c>
+      <c r="S12" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.3217526522376981</v>
+      </c>
+      <c r="U12">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>ROUND(D13^0.8, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>760</v>
+      </c>
+      <c r="G13">
+        <f>100/C13*B13*E13</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H13" s="2">
+        <f>G13*100/F13</f>
+        <v>2.192982456140351</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>785</v>
+      </c>
+      <c r="N13">
+        <v>220</v>
+      </c>
+      <c r="O13">
+        <v>120</v>
+      </c>
+      <c r="P13">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.153</v>
+      </c>
+      <c r="R13">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.833</v>
+      </c>
+      <c r="S13" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.558364387497591</v>
+      </c>
+      <c r="U13">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.12280000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E18" si="3">ROUND(D14^0.8, 2)</f>
+        <v>3.62</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2110</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G18" si="4">100/C14*B14*E14</f>
+        <v>48.266666666666673</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ref="H14:H18" si="5">G14*100/F14</f>
+        <v>2.287519747235387</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>875</v>
+      </c>
+      <c r="N14">
+        <v>250</v>
+      </c>
+      <c r="O14">
+        <v>150</v>
+      </c>
+      <c r="P14">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="R14">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.667</v>
+      </c>
+      <c r="S14" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.3328473740792175</v>
+      </c>
+      <c r="U14">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.15350000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>755</v>
+      </c>
+      <c r="N15">
+        <v>250</v>
+      </c>
+      <c r="O15">
+        <v>150</v>
+      </c>
+      <c r="P15">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="R15">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.667</v>
+      </c>
+      <c r="S15" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.7036310626745901</v>
+      </c>
+      <c r="U15">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.18960000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f>550+300+380+380</f>
+        <v>1610</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88731144631765757</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>785</v>
+      </c>
+      <c r="N16">
+        <v>285</v>
+      </c>
+      <c r="O16">
+        <v>185</v>
+      </c>
+      <c r="P16">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="R16">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="S16" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.6692505388119132</v>
+      </c>
+      <c r="U16">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.2311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>1.74</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2200</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>27.84</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2654545454545454</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>825</v>
+      </c>
+      <c r="N17">
+        <v>320</v>
+      </c>
+      <c r="O17">
+        <v>220</v>
+      </c>
+      <c r="P17">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="R17">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="S17" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.6150782544028783</v>
+      </c>
+      <c r="U17">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>700</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="5"/>
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>925</v>
+      </c>
+      <c r="N18">
+        <v>380</v>
+      </c>
+      <c r="O18">
+        <v>280</v>
+      </c>
+      <c r="P18">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="R18">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.357</v>
+      </c>
+      <c r="S18" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.4550641705247003</v>
+      </c>
+      <c r="U18">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.33030000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>830</v>
+      </c>
+      <c r="N19">
+        <v>400</v>
+      </c>
+      <c r="O19">
+        <v>300</v>
+      </c>
+      <c r="P19">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="R19">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.333</v>
+      </c>
+      <c r="S19" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.7824109358536178</v>
+      </c>
+      <c r="U19">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>975</v>
+      </c>
+      <c r="N20">
+        <v>520</v>
+      </c>
+      <c r="O20">
+        <v>420</v>
+      </c>
+      <c r="P20">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="R20">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.238</v>
+      </c>
+      <c r="S20" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.6024001945294217</v>
+      </c>
+      <c r="U20">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.45109999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>795</v>
+      </c>
+      <c r="N21">
+        <v>440</v>
+      </c>
+      <c r="O21">
+        <v>400</v>
+      </c>
+      <c r="P21">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.503</v>
+      </c>
+      <c r="R21">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S21" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.767295597484277</v>
+      </c>
+      <c r="U21">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.51960000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>955</v>
+      </c>
+      <c r="N22">
+        <v>580</v>
+      </c>
+      <c r="O22">
+        <v>540</v>
+      </c>
+      <c r="P22">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R22">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="S22" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.6135315192557318</v>
+      </c>
+      <c r="U22">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.59350000000000014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>805</v>
+      </c>
+      <c r="N23">
+        <v>450</v>
+      </c>
+      <c r="O23">
+        <v>500</v>
+      </c>
+      <c r="P23">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.621</v>
+      </c>
+      <c r="R23">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.9</v>
+      </c>
+      <c r="S23" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.4999517760867214</v>
+      </c>
+      <c r="U23">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.67279999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>905</v>
+      </c>
+      <c r="N24">
+        <v>600</v>
+      </c>
+      <c r="O24">
+        <v>650</v>
+      </c>
+      <c r="P24">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="R24">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="S24" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.6004349410587939</v>
+      </c>
+      <c r="U24">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.75750000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>765</v>
+      </c>
+      <c r="N25">
+        <v>531</v>
+      </c>
+      <c r="O25">
+        <v>620</v>
+      </c>
+      <c r="P25">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.81</v>
+      </c>
+      <c r="R25">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="S25" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.7876435532498487</v>
+      </c>
+      <c r="U25">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.84760000000000013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>935</v>
+      </c>
+      <c r="N26">
+        <v>730</v>
+      </c>
+      <c r="O26">
+        <v>840</v>
+      </c>
+      <c r="P26">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="R26">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="S26" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.6938388145450194</v>
+      </c>
+      <c r="U26">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>0.94310000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>800</v>
+      </c>
+      <c r="N27">
+        <v>690</v>
+      </c>
+      <c r="O27">
+        <v>800</v>
+      </c>
+      <c r="P27">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="S27" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>3.049397993866986</v>
+      </c>
+      <c r="U27">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>1.0440000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>905</v>
+      </c>
+      <c r="N28">
+        <v>825</v>
+      </c>
+      <c r="O28">
+        <v>1025</v>
+      </c>
+      <c r="P28">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.133</v>
+      </c>
+      <c r="R28">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="S28" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.8473669294607737</v>
+      </c>
+      <c r="U28">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>1.1503000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>885</v>
+      </c>
+      <c r="N29">
+        <v>870</v>
+      </c>
+      <c r="O29">
+        <v>1100</v>
+      </c>
+      <c r="P29">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="R29">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="S29" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.9640098280525917</v>
+      </c>
+      <c r="U29">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>1.262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>735</v>
+      </c>
+      <c r="N30">
+        <v>740</v>
+      </c>
+      <c r="O30">
+        <v>1000</v>
+      </c>
+      <c r="P30">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.361</v>
+      </c>
+      <c r="R30">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.74</v>
+      </c>
+      <c r="S30" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>3.183789753094695</v>
+      </c>
+      <c r="U30">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>1.3791000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>960</v>
+      </c>
+      <c r="N31">
+        <v>1305</v>
+      </c>
+      <c r="O31">
+        <v>1500</v>
+      </c>
+      <c r="P31">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.359</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="R31">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.87</v>
+      </c>
+      <c r="S31" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>3.5098911575004714</v>
+      </c>
+      <c r="U31">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>1.5016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>710</v>
+      </c>
+      <c r="N32">
+        <v>545</v>
+      </c>
+      <c r="O32">
+        <v>1150</v>
+      </c>
+      <c r="P32">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.62</v>
+      </c>
+      <c r="R32">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="S32" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.2635455240681388</v>
+      </c>
+      <c r="U32">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>1.6294999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>839</v>
+      </c>
+      <c r="N33">
+        <v>782</v>
+      </c>
+      <c r="O33">
+        <v>1490</v>
+      </c>
+      <c r="P33">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.776</v>
+      </c>
+      <c r="R33">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="S33" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.4146359263287054</v>
+      </c>
+      <c r="U33">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>1.7628000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>945</v>
+      </c>
+      <c r="N34">
+        <v>840</v>
+      </c>
+      <c r="O34">
+        <v>1800</v>
+      </c>
+      <c r="P34">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.905</v>
+      </c>
+      <c r="R34">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="S34" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.0951312035156961</v>
+      </c>
+      <c r="U34">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>1.9015000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>775</v>
+      </c>
+      <c r="N35">
+        <v>616</v>
+      </c>
+      <c r="O35">
+        <v>1600</v>
+      </c>
+      <c r="P35">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="R35">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S35" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>1.9870967741935481</v>
+      </c>
+      <c r="U35">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>2.0456000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>825</v>
+      </c>
+      <c r="N36">
+        <v>840</v>
+      </c>
+      <c r="O36">
+        <v>1800</v>
+      </c>
+      <c r="P36">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.018</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.1819999999999999</v>
+      </c>
+      <c r="R36">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="S36" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.3998775603907063</v>
+      </c>
+      <c r="U36">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>2.1951000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="M37">
+        <v>865</v>
+      </c>
+      <c r="N37">
+        <v>1100</v>
+      </c>
+      <c r="O37">
+        <v>2000</v>
+      </c>
+      <c r="P37">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.272</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="R37">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S37" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.8435546534679408</v>
+      </c>
+      <c r="U37">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>2.3500000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>995</v>
+      </c>
+      <c r="N38">
+        <v>1210</v>
+      </c>
+      <c r="O38">
+        <v>2500</v>
+      </c>
+      <c r="P38">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.216</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="R38">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="S38" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.4321608040201004</v>
+      </c>
+      <c r="U38">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>2.5103000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>920</v>
+      </c>
+      <c r="N39">
+        <v>1185</v>
+      </c>
+      <c r="O39">
+        <v>2450</v>
+      </c>
+      <c r="P39">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.288</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="R39">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="S39" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.6022407941181953</v>
+      </c>
+      <c r="U39">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>2.6760000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>845</v>
+      </c>
+      <c r="N40">
+        <v>820</v>
+      </c>
+      <c r="O40">
+        <v>2400</v>
+      </c>
+      <c r="P40">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>0.97</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.84</v>
+      </c>
+      <c r="R40">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="S40" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>1.9808496933749566</v>
+      </c>
+      <c r="U40">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>2.8471000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>960</v>
+      </c>
+      <c r="N41">
+        <v>1530</v>
+      </c>
+      <c r="O41">
+        <v>2900</v>
+      </c>
+      <c r="P41">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>3.0209999999999999</v>
+      </c>
+      <c r="R41">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="S41" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.9595194521967643</v>
+      </c>
+      <c r="U41">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>3.0236000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2611AF0A-4669-45BC-A52D-B98A4F110345}">
+  <dimension ref="A1:AJ41"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4577,7 +6959,7 @@
     <col min="14" max="14" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -4621,7 +7003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4639,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="G2">
         <f>100/C2*B2*E2</f>
@@ -4647,34 +7029,34 @@
       </c>
       <c r="H2" s="2">
         <f>G2*100/F2</f>
-        <v>1.5625</v>
+        <v>1.8518518518518519</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1005</v>
+        <v>405</v>
       </c>
       <c r="N2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="O2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.14899999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.29599999999999999</v>
       </c>
       <c r="Q2" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.05</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="R2">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>3</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4682,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -4696,17 +7078,17 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="1">100/C3*B3*E3</f>
-        <v>12.05</v>
+        <v>12.684210526315791</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="2">G3*100/F3</f>
-        <v>1.7214285714285715</v>
+        <v>1.8120300751879703</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>855</v>
+        <v>905</v>
       </c>
       <c r="N3">
         <v>150</v>
@@ -4715,19 +7097,19 @@
         <v>50</v>
       </c>
       <c r="P3">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.17499999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.16600000000000001</v>
       </c>
       <c r="Q3" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>5.8000000000000003E-2</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>5.5E-2</v>
       </c>
       <c r="R3">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4745,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -4753,34 +7135,34 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" si="2"/>
-        <v>1.6025641025641026</v>
+        <v>1.8518518518518519</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>905</v>
+        <v>1825</v>
       </c>
       <c r="N4">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="O4">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="P4">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.17699999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.123</v>
       </c>
       <c r="Q4" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>6.6000000000000003E-2</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="R4">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>2.6669999999999998</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.806</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4812,28 +7194,28 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>825</v>
+        <v>1805</v>
       </c>
       <c r="N5">
+        <v>260</v>
+      </c>
+      <c r="O5">
         <v>160</v>
       </c>
-      <c r="O5">
-        <v>60</v>
-      </c>
       <c r="P5">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.19400000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="Q5" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>7.2999999999999995E-2</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="R5">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>2.6669999999999998</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.625</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4865,31 +7247,28 @@
         <v>5</v>
       </c>
       <c r="M6">
-        <v>755</v>
+        <v>1769</v>
       </c>
       <c r="N6">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c r="O6">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="P6">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.21199999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.153</v>
       </c>
       <c r="Q6" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>7.9000000000000001E-2</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="R6">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>22</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.585</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4921,112 +7300,138 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>915</v>
+        <v>1805</v>
       </c>
       <c r="N7">
-        <v>180</v>
+        <v>301</v>
       </c>
       <c r="O7">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="P7">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.19700000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.16700000000000001</v>
       </c>
       <c r="Q7" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>8.6999999999999994E-2</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.111</v>
       </c>
       <c r="R7">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>2.25</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>29</v>
-      </c>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.498</v>
+      </c>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="10"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L8">
         <v>7</v>
       </c>
       <c r="M8">
-        <v>735</v>
+        <v>1797</v>
       </c>
       <c r="N8">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="O8">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="P8">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.23100000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.18</v>
       </c>
       <c r="Q8" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>9.5000000000000001E-2</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.125</v>
       </c>
       <c r="R8">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>2.4289999999999998</v>
-      </c>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.446</v>
+      </c>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="10"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>8</v>
       </c>
       <c r="M9">
-        <v>965</v>
+        <v>1665</v>
       </c>
       <c r="N9">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="P9">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.20699999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.19800000000000001</v>
       </c>
       <c r="Q9" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.104</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.13800000000000001</v>
       </c>
       <c r="R9">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>2</v>
-      </c>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="10"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L10">
         <v>9</v>
       </c>
       <c r="M10">
-        <v>885</v>
+        <v>1065</v>
       </c>
       <c r="N10">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="P10">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.22600000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.24399999999999999</v>
       </c>
       <c r="Q10" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.113</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.15</v>
       </c>
       <c r="R10">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>2</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>23</v>
-      </c>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.625</v>
+      </c>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="10"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -5034,31 +7439,36 @@
         <v>10</v>
       </c>
       <c r="M11">
-        <v>965</v>
+        <v>1305</v>
       </c>
       <c r="N11">
+        <v>320</v>
+      </c>
+      <c r="O11">
         <v>220</v>
       </c>
-      <c r="O11">
-        <v>120</v>
-      </c>
       <c r="P11">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.22800000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.245</v>
       </c>
       <c r="Q11" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.124</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.16900000000000001</v>
       </c>
       <c r="R11">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.833</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>24</v>
-      </c>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="10"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5087,28 +7497,36 @@
         <v>11</v>
       </c>
       <c r="M12">
-        <v>865</v>
+        <v>1490</v>
       </c>
       <c r="N12">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="O12">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="P12">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.254</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.248</v>
       </c>
       <c r="Q12" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.13900000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.18099999999999999</v>
       </c>
       <c r="R12">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.833</v>
-      </c>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.37</v>
+      </c>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="10"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5126,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>930</v>
+        <v>790</v>
       </c>
       <c r="G13">
         <f>100/C13*B13*E13</f>
@@ -5134,37 +7552,42 @@
       </c>
       <c r="H13" s="2">
         <f>G13*100/F13</f>
-        <v>1.7921146953405018</v>
+        <v>2.109704641350211</v>
       </c>
       <c r="L13">
         <v>12</v>
       </c>
       <c r="M13">
-        <v>785</v>
+        <v>1505</v>
       </c>
       <c r="N13">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="O13">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="P13">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.28000000000000003</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.26600000000000001</v>
       </c>
       <c r="Q13" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.153</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.19900000000000001</v>
       </c>
       <c r="R13">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.833</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>25</v>
-      </c>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.333</v>
+      </c>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="10"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -5172,7 +7595,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -5182,42 +7605,50 @@
         <v>3.62</v>
       </c>
       <c r="F14" s="1">
-        <v>1950</v>
+        <v>1640</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14:G18" si="4">100/C14*B14*E14</f>
-        <v>35.032258064516128</v>
+        <v>37.448275862068968</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ref="H14:H18" si="5">G14*100/F14</f>
-        <v>1.7965260545905706</v>
+        <v>2.2834314550042052</v>
       </c>
       <c r="L14">
         <v>13</v>
       </c>
       <c r="M14">
-        <v>585</v>
+        <v>1155</v>
       </c>
       <c r="N14">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="P14">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.34200000000000003</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.30299999999999999</v>
       </c>
       <c r="Q14" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.17100000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.216</v>
       </c>
       <c r="R14">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>2</v>
-      </c>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.4</v>
+      </c>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="10"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5235,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1410</v>
+        <v>1270</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
@@ -5243,34 +7674,42 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
-        <v>1.7730496453900708</v>
+        <v>1.9685039370078741</v>
       </c>
       <c r="L15">
         <v>14</v>
       </c>
       <c r="M15">
-        <v>755</v>
+        <v>1338</v>
       </c>
       <c r="N15">
-        <v>250</v>
+        <v>411</v>
       </c>
       <c r="O15">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="P15">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.33100000000000002</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.307</v>
       </c>
       <c r="Q15" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.19900000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.23200000000000001</v>
       </c>
       <c r="R15">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.667</v>
-      </c>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="10"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -5303,28 +7742,36 @@
         <v>15</v>
       </c>
       <c r="M16">
-        <v>785</v>
+        <v>845</v>
       </c>
       <c r="N16">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="O16">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="P16">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.35699999999999998</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.39100000000000001</v>
       </c>
       <c r="Q16" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.23599999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.27500000000000002</v>
       </c>
       <c r="R16">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.514</v>
-      </c>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="10"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5356,31 +7803,28 @@
         <v>16</v>
       </c>
       <c r="M17">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="N17">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="O17">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="P17">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.38800000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.435</v>
       </c>
       <c r="Q17" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.26700000000000002</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.311</v>
       </c>
       <c r="R17">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>26</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -5412,399 +7856,649 @@
         <v>17</v>
       </c>
       <c r="M18">
-        <v>925</v>
+        <v>1205</v>
       </c>
       <c r="N18">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="O18">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="P18">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.36799999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.432</v>
       </c>
       <c r="Q18" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.30299999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.34899999999999998</v>
       </c>
       <c r="R18">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.214</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.238</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19">
-        <v>830</v>
+        <v>735</v>
       </c>
       <c r="N19">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="O19">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="P19">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.42199999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.503</v>
       </c>
       <c r="Q19" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.36099999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.38100000000000001</v>
       </c>
       <c r="R19">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.167</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.321</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L20">
         <v>19</v>
       </c>
       <c r="M20">
-        <v>745</v>
+        <v>1285</v>
       </c>
       <c r="N20">
-        <v>380</v>
+        <v>630</v>
       </c>
       <c r="O20">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="P20">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.51</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.49</v>
       </c>
       <c r="Q20" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.43</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.42799999999999999</v>
       </c>
       <c r="R20">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1.1879999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.145</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>20</v>
       </c>
       <c r="M21">
-        <v>795</v>
+        <v>1355</v>
       </c>
       <c r="N21">
-        <v>400</v>
+        <v>710</v>
       </c>
       <c r="O21">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="P21">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.503</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.52400000000000002</v>
       </c>
       <c r="Q21" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.503</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.46500000000000002</v>
       </c>
       <c r="R21">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.127</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L22">
         <v>21</v>
       </c>
       <c r="M22">
-        <v>705</v>
+        <v>1205</v>
       </c>
       <c r="N22">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="O22">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P22">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.56699999999999995</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.53900000000000003</v>
       </c>
       <c r="Q22" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.56699999999999995</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.498</v>
       </c>
       <c r="R22">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>1</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1.083</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L23">
         <v>22</v>
       </c>
       <c r="M23">
-        <v>805</v>
+        <v>1155</v>
       </c>
       <c r="N23">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="O23">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="P23">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.54700000000000004</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.51900000000000002</v>
       </c>
       <c r="Q23" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.621</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.54100000000000004</v>
       </c>
       <c r="R23">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.88</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.96</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L24">
         <v>23</v>
       </c>
       <c r="M24">
-        <v>905</v>
+        <v>1385</v>
       </c>
       <c r="N24">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="O24">
-        <v>650</v>
+        <v>840</v>
       </c>
       <c r="P24">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.66300000000000003</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.59199999999999997</v>
       </c>
       <c r="Q24" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.71799999999999997</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.60599999999999998</v>
       </c>
       <c r="R24">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.92300000000000004</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L25">
         <v>24</v>
       </c>
       <c r="M25">
-        <v>765</v>
+        <v>905</v>
       </c>
       <c r="N25">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="O25">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="P25">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.69</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.66300000000000003</v>
       </c>
       <c r="Q25" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.81</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.66300000000000003</v>
       </c>
       <c r="R25">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.85199999999999998</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L26">
         <v>25</v>
       </c>
       <c r="M26">
-        <v>665</v>
+        <v>1405</v>
       </c>
       <c r="N26">
-        <v>440</v>
+        <v>850</v>
       </c>
       <c r="O26">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="P26">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.66200000000000003</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.60499999999999998</v>
       </c>
       <c r="Q26" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.90200000000000002</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.71199999999999997</v>
       </c>
       <c r="R26">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.73299999999999998</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.85</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L27">
         <v>26</v>
       </c>
       <c r="M27">
-        <v>600</v>
+        <v>1293</v>
       </c>
       <c r="N27">
-        <v>460</v>
+        <v>836</v>
       </c>
       <c r="O27">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="P27">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.76700000000000002</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.64700000000000002</v>
       </c>
       <c r="Q27" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>1</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.77300000000000002</v>
       </c>
       <c r="R27">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.76700000000000002</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>27</v>
       </c>
       <c r="M28">
-        <v>705</v>
+        <v>1373</v>
       </c>
       <c r="N28">
-        <v>540</v>
+        <v>891</v>
       </c>
       <c r="O28">
-        <v>800</v>
+        <v>1130</v>
       </c>
       <c r="P28">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.76600000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="Q28" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>1.135</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.82299999999999995</v>
       </c>
       <c r="R28">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.67500000000000004</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>28</v>
       </c>
       <c r="M29">
-        <v>885</v>
+        <v>1293</v>
       </c>
       <c r="N29">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="O29">
-        <v>1100</v>
+        <v>1140</v>
       </c>
       <c r="P29">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.91500000000000004</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.61599999999999999</v>
       </c>
       <c r="Q29" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>1.2430000000000001</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.88200000000000001</v>
       </c>
       <c r="R29">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.73599999999999999</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L30">
         <v>29</v>
       </c>
       <c r="M30">
-        <v>735</v>
+        <v>1375</v>
       </c>
       <c r="N30">
-        <v>680</v>
+        <v>1012</v>
       </c>
       <c r="O30">
-        <v>1000</v>
+        <v>1320</v>
       </c>
       <c r="P30">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.92500000000000004</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.73599999999999999</v>
       </c>
       <c r="Q30" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>1.361</v>
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.96</v>
       </c>
       <c r="R30">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.68</v>
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>30</v>
       </c>
       <c r="M31">
-        <v>670</v>
+        <v>1329</v>
       </c>
       <c r="N31">
-        <v>800</v>
+        <v>932</v>
       </c>
       <c r="O31">
+        <v>1360</v>
+      </c>
+      <c r="P31">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="R31">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>1349</v>
+      </c>
+      <c r="N32">
+        <v>934</v>
+      </c>
+      <c r="O32">
+        <v>1500</v>
+      </c>
+      <c r="P32">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="R32">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>1307</v>
+      </c>
+      <c r="N33">
+        <v>1010</v>
+      </c>
+      <c r="O33">
+        <v>1540</v>
+      </c>
+      <c r="P33">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="R33">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>1300</v>
+      </c>
+      <c r="N34">
+        <v>1150</v>
+      </c>
+      <c r="O34">
+        <v>1650</v>
+      </c>
+      <c r="P34">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="R34">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>1285</v>
+      </c>
+      <c r="N35">
+        <v>1140</v>
+      </c>
+      <c r="O35">
+        <v>1760</v>
+      </c>
+      <c r="P35">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.37</v>
+      </c>
+      <c r="R35">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>1297</v>
+      </c>
+      <c r="N36">
+        <v>828</v>
+      </c>
+      <c r="O36">
+        <v>1880</v>
+      </c>
+      <c r="P36">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="R36">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="M37">
+        <v>1373</v>
+      </c>
+      <c r="N37">
+        <v>765</v>
+      </c>
+      <c r="O37">
+        <v>2150</v>
+      </c>
+      <c r="P37">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="R37">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>1310</v>
+      </c>
+      <c r="N38">
+        <v>1010</v>
+      </c>
+      <c r="O38">
+        <v>2200</v>
+      </c>
+      <c r="P38">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.679</v>
+      </c>
+      <c r="R38">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>1285</v>
+      </c>
+      <c r="N39">
         <v>1050</v>
       </c>
-      <c r="P31">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>1.194</v>
-      </c>
-      <c r="Q31" s="4">
-        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="R31">
-        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.76200000000000001</v>
+      <c r="O39">
+        <v>2300</v>
+      </c>
+      <c r="P39">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.79</v>
+      </c>
+      <c r="R39">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>1356</v>
+      </c>
+      <c r="N40">
+        <v>999</v>
+      </c>
+      <c r="O40">
+        <v>2570</v>
+      </c>
+      <c r="P40">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>1.895</v>
+      </c>
+      <c r="R40">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>1601</v>
+      </c>
+      <c r="N41">
+        <v>1504</v>
+      </c>
+      <c r="O41">
+        <v>3270</v>
+      </c>
+      <c r="P41">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="R41">
+        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD7:AD16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5816,1517 +8510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2611AF0A-4669-45BC-A52D-B98A4F110345}">
-  <dimension ref="A1:AC41"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:Q31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>ROUND(D2^0.8, 2)</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>270</v>
-      </c>
-      <c r="G2">
-        <f>100/C2*B2*E2</f>
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <f>G2*100/F2</f>
-        <v>1.8518518518518519</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>405</v>
-      </c>
-      <c r="N2">
-        <v>120</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="Q2" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="R2">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">ROUND(D3^0.8, 2)</f>
-        <v>2.41</v>
-      </c>
-      <c r="F3" s="1">
-        <v>700</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G7" si="1">100/C3*B3*E3</f>
-        <v>12.684210526315791</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H7" si="2">G3*100/F3</f>
-        <v>1.8120300751879703</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>905</v>
-      </c>
-      <c r="N3">
-        <v>150</v>
-      </c>
-      <c r="O3">
-        <v>50</v>
-      </c>
-      <c r="P3">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="Q3" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>5.5E-2</v>
-      </c>
-      <c r="R3">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>450</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8518518518518519</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>1825</v>
-      </c>
-      <c r="N4">
-        <v>224</v>
-      </c>
-      <c r="O4">
-        <v>124</v>
-      </c>
-      <c r="P4">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.123</v>
-      </c>
-      <c r="Q4" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R4">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>550</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>1805</v>
-      </c>
-      <c r="N5">
-        <v>260</v>
-      </c>
-      <c r="O5">
-        <v>160</v>
-      </c>
-      <c r="P5">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="R5">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>800</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>1769</v>
-      </c>
-      <c r="N6">
-        <v>271</v>
-      </c>
-      <c r="O6">
-        <v>171</v>
-      </c>
-      <c r="P6">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.153</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="R6">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.585</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>350</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.95238095238095244</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>1805</v>
-      </c>
-      <c r="N7">
-        <v>301</v>
-      </c>
-      <c r="O7">
-        <v>201</v>
-      </c>
-      <c r="P7">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.111</v>
-      </c>
-      <c r="R7">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.498</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L8">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>1797</v>
-      </c>
-      <c r="N8">
-        <v>324</v>
-      </c>
-      <c r="O8">
-        <v>224</v>
-      </c>
-      <c r="P8">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.18</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.125</v>
-      </c>
-      <c r="R8">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>1665</v>
-      </c>
-      <c r="N9">
-        <v>330</v>
-      </c>
-      <c r="O9">
-        <v>230</v>
-      </c>
-      <c r="P9">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="R9">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.4350000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>1065</v>
-      </c>
-      <c r="N10">
-        <v>260</v>
-      </c>
-      <c r="O10">
-        <v>160</v>
-      </c>
-      <c r="P10">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="Q10" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.15</v>
-      </c>
-      <c r="R10">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.625</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>1305</v>
-      </c>
-      <c r="N11">
-        <v>320</v>
-      </c>
-      <c r="O11">
-        <v>220</v>
-      </c>
-      <c r="P11">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.245</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="R11">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12">
-        <v>1490</v>
-      </c>
-      <c r="N12">
-        <v>370</v>
-      </c>
-      <c r="O12">
-        <v>270</v>
-      </c>
-      <c r="P12">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.248</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="R12">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f>ROUND(D13^0.8, 2)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>790</v>
-      </c>
-      <c r="G13">
-        <f>100/C13*B13*E13</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="H13" s="2">
-        <f>G13*100/F13</f>
-        <v>2.109704641350211</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <v>1505</v>
-      </c>
-      <c r="N13">
-        <v>400</v>
-      </c>
-      <c r="O13">
-        <v>300</v>
-      </c>
-      <c r="P13">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="Q13" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="R13">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.333</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14:E18" si="3">ROUND(D14^0.8, 2)</f>
-        <v>3.62</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1640</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G18" si="4">100/C14*B14*E14</f>
-        <v>37.448275862068968</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" ref="H14:H18" si="5">G14*100/F14</f>
-        <v>2.2834314550042052</v>
-      </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>1155</v>
-      </c>
-      <c r="N14">
-        <v>350</v>
-      </c>
-      <c r="O14">
-        <v>250</v>
-      </c>
-      <c r="P14">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="Q14" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.216</v>
-      </c>
-      <c r="R14">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1270</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="5"/>
-        <v>1.9685039370078741</v>
-      </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15">
-        <v>1338</v>
-      </c>
-      <c r="N15">
-        <v>411</v>
-      </c>
-      <c r="O15">
-        <v>311</v>
-      </c>
-      <c r="P15">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.307</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="R15">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.3220000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <f>550+350+450+500</f>
-        <v>1850</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="5"/>
-        <v>0.77220077220077221</v>
-      </c>
-      <c r="L16">
-        <v>15</v>
-      </c>
-      <c r="M16">
-        <v>845</v>
-      </c>
-      <c r="N16">
-        <v>330</v>
-      </c>
-      <c r="O16">
-        <v>232</v>
-      </c>
-      <c r="P16">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="Q16" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="R16">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.4219999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>1.74</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2200</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>27.84</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="5"/>
-        <v>1.2654545454545454</v>
-      </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-      <c r="M17">
-        <v>805</v>
-      </c>
-      <c r="N17">
-        <v>350</v>
-      </c>
-      <c r="O17">
-        <v>250</v>
-      </c>
-      <c r="P17">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.435</v>
-      </c>
-      <c r="Q17" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.311</v>
-      </c>
-      <c r="R17">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.4</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>700</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="5"/>
-        <v>0.64935064935064934</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>1205</v>
-      </c>
-      <c r="N18">
-        <v>520</v>
-      </c>
-      <c r="O18">
-        <v>420</v>
-      </c>
-      <c r="P18">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.432</v>
-      </c>
-      <c r="Q18" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="R18">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L19">
-        <v>18</v>
-      </c>
-      <c r="M19">
-        <v>735</v>
-      </c>
-      <c r="N19">
-        <v>370</v>
-      </c>
-      <c r="O19">
-        <v>280</v>
-      </c>
-      <c r="P19">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.503</v>
-      </c>
-      <c r="Q19" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="R19">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.321</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L20">
-        <v>19</v>
-      </c>
-      <c r="M20">
-        <v>1285</v>
-      </c>
-      <c r="N20">
-        <v>630</v>
-      </c>
-      <c r="O20">
-        <v>550</v>
-      </c>
-      <c r="P20">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.49</v>
-      </c>
-      <c r="Q20" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="R20">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.145</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L21">
-        <v>20</v>
-      </c>
-      <c r="M21">
-        <v>1355</v>
-      </c>
-      <c r="N21">
-        <v>710</v>
-      </c>
-      <c r="O21">
-        <v>630</v>
-      </c>
-      <c r="P21">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="Q21" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="R21">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L22">
-        <v>21</v>
-      </c>
-      <c r="M22">
-        <v>1205</v>
-      </c>
-      <c r="N22">
-        <v>650</v>
-      </c>
-      <c r="O22">
-        <v>600</v>
-      </c>
-      <c r="P22">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="Q22" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.498</v>
-      </c>
-      <c r="R22">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1.083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L23">
-        <v>22</v>
-      </c>
-      <c r="M23">
-        <v>1155</v>
-      </c>
-      <c r="N23">
-        <v>600</v>
-      </c>
-      <c r="O23">
-        <v>625</v>
-      </c>
-      <c r="P23">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="Q23" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="R23">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L24">
-        <v>23</v>
-      </c>
-      <c r="M24">
-        <v>1385</v>
-      </c>
-      <c r="N24">
-        <v>820</v>
-      </c>
-      <c r="O24">
-        <v>840</v>
-      </c>
-      <c r="P24">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="Q24" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="R24">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L25">
-        <v>24</v>
-      </c>
-      <c r="M25">
-        <v>905</v>
-      </c>
-      <c r="N25">
-        <v>600</v>
-      </c>
-      <c r="O25">
-        <v>600</v>
-      </c>
-      <c r="P25">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="Q25" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="R25">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L26">
-        <v>25</v>
-      </c>
-      <c r="M26">
-        <v>1405</v>
-      </c>
-      <c r="N26">
-        <v>850</v>
-      </c>
-      <c r="O26">
-        <v>1000</v>
-      </c>
-      <c r="P26">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="Q26" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="R26">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L27">
-        <v>26</v>
-      </c>
-      <c r="M27">
-        <v>1293</v>
-      </c>
-      <c r="N27">
-        <v>836</v>
-      </c>
-      <c r="O27">
-        <v>1000</v>
-      </c>
-      <c r="P27">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="Q27" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="R27">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.83599999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L28">
-        <v>27</v>
-      </c>
-      <c r="M28">
-        <v>1373</v>
-      </c>
-      <c r="N28">
-        <v>891</v>
-      </c>
-      <c r="O28">
-        <v>1130</v>
-      </c>
-      <c r="P28">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="Q28" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="R28">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.78800000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L29">
-        <v>28</v>
-      </c>
-      <c r="M29">
-        <v>1293</v>
-      </c>
-      <c r="N29">
-        <v>796</v>
-      </c>
-      <c r="O29">
-        <v>1140</v>
-      </c>
-      <c r="P29">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="Q29" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="R29">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L30">
-        <v>29</v>
-      </c>
-      <c r="M30">
-        <v>1375</v>
-      </c>
-      <c r="N30">
-        <v>1012</v>
-      </c>
-      <c r="O30">
-        <v>1320</v>
-      </c>
-      <c r="P30">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="Q30" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.96</v>
-      </c>
-      <c r="R30">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.76700000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L31">
-        <v>30</v>
-      </c>
-      <c r="M31">
-        <v>1329</v>
-      </c>
-      <c r="N31">
-        <v>932</v>
-      </c>
-      <c r="O31">
-        <v>1360</v>
-      </c>
-      <c r="P31">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="Q31" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="R31">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L32">
-        <v>31</v>
-      </c>
-      <c r="M32">
-        <v>1349</v>
-      </c>
-      <c r="N32">
-        <v>934</v>
-      </c>
-      <c r="O32">
-        <v>1500</v>
-      </c>
-      <c r="P32">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="Q32" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="R32">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.623</v>
-      </c>
-    </row>
-    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L33">
-        <v>32</v>
-      </c>
-      <c r="M33">
-        <v>1307</v>
-      </c>
-      <c r="N33">
-        <v>1010</v>
-      </c>
-      <c r="O33">
-        <v>1540</v>
-      </c>
-      <c r="P33">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="Q33" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="R33">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.65600000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L34">
-        <v>33</v>
-      </c>
-      <c r="M34">
-        <v>1300</v>
-      </c>
-      <c r="N34">
-        <v>1150</v>
-      </c>
-      <c r="O34">
-        <v>1650</v>
-      </c>
-      <c r="P34">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="Q34" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="R34">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.69699999999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L35">
-        <v>34</v>
-      </c>
-      <c r="M35">
-        <v>1285</v>
-      </c>
-      <c r="N35">
-        <v>1140</v>
-      </c>
-      <c r="O35">
-        <v>1760</v>
-      </c>
-      <c r="P35">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="Q35" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>1.37</v>
-      </c>
-      <c r="R35">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.64800000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L36">
-        <v>35</v>
-      </c>
-      <c r="M36">
-        <v>1297</v>
-      </c>
-      <c r="N36">
-        <v>828</v>
-      </c>
-      <c r="O36">
-        <v>1880</v>
-      </c>
-      <c r="P36">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="Q36" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>1.4490000000000001</v>
-      </c>
-      <c r="R36">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L37">
-        <v>36</v>
-      </c>
-      <c r="M37">
-        <v>1373</v>
-      </c>
-      <c r="N37">
-        <v>765</v>
-      </c>
-      <c r="O37">
-        <v>2150</v>
-      </c>
-      <c r="P37">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="Q37" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="R37">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L38">
-        <v>37</v>
-      </c>
-      <c r="M38">
-        <v>1310</v>
-      </c>
-      <c r="N38">
-        <v>1010</v>
-      </c>
-      <c r="O38">
-        <v>2200</v>
-      </c>
-      <c r="P38">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="Q38" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>1.679</v>
-      </c>
-      <c r="R38">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.45900000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L39">
-        <v>38</v>
-      </c>
-      <c r="M39">
-        <v>1285</v>
-      </c>
-      <c r="N39">
-        <v>1050</v>
-      </c>
-      <c r="O39">
-        <v>2300</v>
-      </c>
-      <c r="P39">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="Q39" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>1.79</v>
-      </c>
-      <c r="R39">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L40">
-        <v>39</v>
-      </c>
-      <c r="M40">
-        <v>1356</v>
-      </c>
-      <c r="N40">
-        <v>999</v>
-      </c>
-      <c r="O40">
-        <v>2570</v>
-      </c>
-      <c r="P40">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="Q40" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>1.895</v>
-      </c>
-      <c r="R40">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L41">
-        <v>40</v>
-      </c>
-      <c r="M41">
-        <v>1601</v>
-      </c>
-      <c r="N41">
-        <v>1504</v>
-      </c>
-      <c r="O41">
-        <v>3270</v>
-      </c>
-      <c r="P41">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="Q41" s="4">
-        <f>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</f>
-        <v>2.0419999999999998</v>
-      </c>
-      <c r="R41">
-        <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
-        <v>0.46</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
+  <conditionalFormatting sqref="AG7:AG16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Towers & Upgrades.xlsx
+++ b/Towers & Upgrades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jeremy\Daten\Programmieren\Python\Eigene Projekte\Points TD 2\Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\Programming\Python\Points TD 2\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA5655E-581A-4962-A67A-EC06BC070106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EEF95B-E844-46FB-984D-55170316B81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Ninja</t>
   </si>
@@ -113,6 +113,60 @@
   <si>
     <t>Curve H/T</t>
   </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Rounds till payoff</t>
+  </si>
+  <si>
+    <t>1xMoney</t>
+  </si>
+  <si>
+    <t>2xMoney</t>
+  </si>
+  <si>
+    <t>3xMoney</t>
+  </si>
+  <si>
+    <t>Money+</t>
+  </si>
+  <si>
+    <t>Should be</t>
+  </si>
+  <si>
+    <t>=1.5</t>
+  </si>
+  <si>
+    <t>=1</t>
+  </si>
+  <si>
+    <t>=1.2 - 1.5</t>
+  </si>
+  <si>
+    <t>Ticks per s</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>=1.7</t>
+  </si>
+  <si>
+    <t>1+3</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +207,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,28 +272,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -388,10 +457,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$Q$2:$Q$41</c:f>
+              <c:f>Tabelle1!$Q$2:$Q$61</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -511,6 +580,66 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>3.0209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.2090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.774</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.9769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.0789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.806</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.8929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.1070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.407</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.6429999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,7 +935,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="de-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -848,10 +977,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$P$2:$P$41</c:f>
+              <c:f>Tabelle1!$P$2:$P$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0.14899999999999999</c:v>
                 </c:pt>
@@ -971,6 +1100,66 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1.5940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.401</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.915</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.538</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.173</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.871</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.913</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.706</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.234</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.444</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4650000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,10 +1203,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$R$2:$R$41</c:f>
+              <c:f>Tabelle1!$R$2:$R$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1137,6 +1326,66 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.371</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,10 +1414,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$S$2:$S$41</c:f>
+              <c:f>Tabelle1!$S$2:$S$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>2.110766511004619</c:v>
                 </c:pt>
@@ -1288,6 +1537,66 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2.9595194521967643</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5579912667799203</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.382321526846038</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0296561566174636</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0094643095053262</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.4478451982674705</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.8854381817288473</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9218262023122747</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3762780105311521</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3147230528819445</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.7645608127863031</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.2934030538459385</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6591332295997203</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7890740364513507</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7498729394706292</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7562025945213122</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4691150658881527</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1845840530923493</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.6695461325235188</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0427529234278037</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8912657529250654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,8 +5019,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}" name="Waves" displayName="Waves" ref="L1:S41" totalsRowShown="0">
-  <autoFilter ref="L1:S41" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}" name="Waves" displayName="Waves" ref="L1:S61" totalsRowShown="0">
+  <autoFilter ref="L1:S61" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C596E476-F34D-48B8-BAB6-31EDA5A2D2AB}" name="Wave"/>
     <tableColumn id="2" xr3:uid="{658BD531-EA5F-4C0A-AC63-7FBA171C7055}" name="Time"/>
@@ -4726,7 +5035,7 @@
     <tableColumn id="7" xr3:uid="{3A3EA08A-5B7D-4363-B7B6-F3EEA8916E91}" name="M / H">
       <calculatedColumnFormula>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7E68E024-47D5-4ECA-9534-8FAC2F31D088}" name="M/TH" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{7E68E024-47D5-4ECA-9534-8FAC2F31D088}" name="M/TH" dataDxfId="1">
       <calculatedColumnFormula>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4745,7 +5054,7 @@
     <tableColumn id="5" xr3:uid="{2C91DF4B-5192-4C4B-B806-6E93715A31D0}" name="M / T">
       <calculatedColumnFormula>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Time]],3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2474BB5B-8C9E-4CF7-80E8-BB831343E452}" name="H / T" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{2474BB5B-8C9E-4CF7-80E8-BB831343E452}" name="H / T" dataDxfId="0">
       <calculatedColumnFormula>ROUND(Waves3[[#This Row],[Health]]/Waves3[[#This Row],[Time]],3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{087609F2-9BF4-4046-B6E3-AC17A8129A43}" name="M / H">
@@ -5019,25 +5328,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -5059,6 +5368,9 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
       <c r="L1" t="s">
         <v>15</v>
       </c>
@@ -5087,15 +5399,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -5109,12 +5421,13 @@
       </c>
       <c r="G2">
         <f>100/C2*B2*E2</f>
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="H2" s="2">
         <f>G2*100/F2</f>
-        <v>1.7857142857142858</v>
-      </c>
+        <v>1.4880952380952381</v>
+      </c>
+      <c r="I2" s="10"/>
       <c r="L2">
         <v>1</v>
       </c>
@@ -5148,15 +5461,15 @@
         <v>0.14150000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -5170,11 +5483,14 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="1">100/C3*B3*E3</f>
-        <v>12.05</v>
+        <v>9.64</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="2">G3*100/F3</f>
-        <v>1.7720588235294117</v>
+        <v>1.4176470588235295</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -5209,15 +5525,15 @@
         <v>0.11280000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -5231,12 +5547,13 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="2"/>
-        <v>1.7361111111111112</v>
-      </c>
+        <v>1.3888888888888891</v>
+      </c>
+      <c r="I4" s="10"/>
       <c r="L4">
         <v>3</v>
       </c>
@@ -5270,7 +5587,7 @@
         <v>8.950000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5278,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5292,12 +5609,13 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>1.0909090909090908</v>
-      </c>
+        <v>0.99173553719008256</v>
+      </c>
+      <c r="I5" s="12"/>
       <c r="L5">
         <v>4</v>
       </c>
@@ -5331,7 +5649,7 @@
         <v>7.1600000000000011E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5339,7 +5657,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5353,11 +5671,14 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -5392,7 +5713,7 @@
         <v>5.9100000000000014E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5420,6 +5741,7 @@
         <f t="shared" si="2"/>
         <v>0.95238095238095244</v>
       </c>
+      <c r="I7" s="12"/>
       <c r="L7">
         <v>6</v>
       </c>
@@ -5453,7 +5775,7 @@
         <v>5.2000000000000018E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L8">
         <v>7</v>
       </c>
@@ -5487,7 +5809,7 @@
         <v>5.0300000000000011E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L9">
         <v>8</v>
       </c>
@@ -5521,7 +5843,7 @@
         <v>5.400000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L10">
         <v>9</v>
       </c>
@@ -5555,7 +5877,7 @@
         <v>6.3100000000000017E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -5592,7 +5914,7 @@
         <v>7.760000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5616,6 +5938,9 @@
       </c>
       <c r="H12" t="s">
         <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
       </c>
       <c r="L12">
         <v>11</v>
@@ -5650,15 +5975,15 @@
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -5668,16 +5993,17 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>760</v>
+        <v>830</v>
       </c>
       <c r="G13">
         <f>100/C13*B13*E13</f>
-        <v>16.666666666666668</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="H13" s="2">
         <f>G13*100/F13</f>
-        <v>2.192982456140351</v>
-      </c>
+        <v>1.7211703958691911</v>
+      </c>
+      <c r="I13" s="10"/>
       <c r="L13">
         <v>12</v>
       </c>
@@ -5711,33 +6037,36 @@
         <v>0.12280000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E18" si="3">ROUND(D14^0.8, 2)</f>
+        <f t="shared" ref="E14:E19" si="3">ROUND(D14^0.8, 2)</f>
         <v>3.62</v>
       </c>
       <c r="F14" s="1">
         <v>2110</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G18" si="4">100/C14*B14*E14</f>
-        <v>48.266666666666673</v>
+        <f t="shared" ref="G14:G19" si="4">100/C14*B14*E14</f>
+        <v>36.200000000000003</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" ref="H14:H18" si="5">G14*100/F14</f>
-        <v>2.287519747235387</v>
+        <f t="shared" ref="H14:H19" si="5">G14*100/F14</f>
+        <v>1.7156398104265405</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="L14">
         <v>13</v>
@@ -5772,8 +6101,8 @@
         <v>0.15350000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1">
@@ -5800,6 +6129,7 @@
         <f t="shared" si="5"/>
         <v>2.0833333333333335</v>
       </c>
+      <c r="I15" s="10"/>
       <c r="L15">
         <v>14</v>
       </c>
@@ -5833,8 +6163,8 @@
         <v>0.18960000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="1">
@@ -5862,6 +6192,7 @@
         <f t="shared" si="5"/>
         <v>0.88731144631765757</v>
       </c>
+      <c r="I16" s="12"/>
       <c r="L16">
         <v>15</v>
       </c>
@@ -5895,8 +6226,8 @@
         <v>0.2311</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1">
@@ -5923,6 +6254,9 @@
         <f t="shared" si="5"/>
         <v>1.2654545454545454</v>
       </c>
+      <c r="I17" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="L17">
         <v>16</v>
       </c>
@@ -5956,8 +6290,8 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1">
@@ -5984,6 +6318,7 @@
         <f t="shared" si="5"/>
         <v>0.64935064935064934</v>
       </c>
+      <c r="I18" s="12"/>
       <c r="L18">
         <v>17</v>
       </c>
@@ -6017,7 +6352,31 @@
         <v>0.33030000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>280</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4880952380952381</v>
+      </c>
       <c r="L19">
         <v>18</v>
       </c>
@@ -6051,7 +6410,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L20">
         <v>19</v>
       </c>
@@ -6085,7 +6444,7 @@
         <v>0.45109999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L21">
         <v>20</v>
       </c>
@@ -6119,15 +6478,7 @@
         <v>0.51960000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L22">
         <v>21</v>
       </c>
@@ -6161,15 +6512,7 @@
         <v>0.59350000000000014</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L23">
         <v>22</v>
       </c>
@@ -6203,15 +6546,22 @@
         <v>0.67279999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24">
+        <v>60</v>
+      </c>
       <c r="L24">
         <v>23</v>
       </c>
@@ -6245,15 +6595,26 @@
         <v>0.75750000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1200</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <f>B25/C25</f>
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>120</v>
+      </c>
       <c r="L25">
         <v>24</v>
       </c>
@@ -6287,15 +6648,20 @@
         <v>0.84760000000000013</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>1700</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D29" si="6">B26/C26</f>
+        <v>21.25</v>
+      </c>
       <c r="L26">
         <v>25</v>
       </c>
@@ -6329,15 +6695,20 @@
         <v>0.94310000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2200</v>
+      </c>
+      <c r="C27">
+        <v>110</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
       <c r="L27">
         <v>26</v>
       </c>
@@ -6371,15 +6742,20 @@
         <v>1.0440000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>2700</v>
+      </c>
+      <c r="C28">
+        <v>140</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>19.285714285714285</v>
+      </c>
       <c r="L28">
         <v>27</v>
       </c>
@@ -6413,17 +6789,23 @@
         <v>1.1503000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>4200</v>
+      </c>
+      <c r="C29">
+        <v>240</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>17.5</v>
+      </c>
+      <c r="G29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="6"/>
       <c r="L29">
         <v>28</v>
       </c>
@@ -6457,15 +6839,7 @@
         <v>1.262</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L30">
         <v>29</v>
       </c>
@@ -6499,15 +6873,35 @@
         <v>1.3791000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E36" si="7">ROUND(D31^0.8, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <f>480</f>
+        <v>480</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G36" si="8">100/C31*B31*E31</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" ref="H31:H36" si="9">G31*100/F31</f>
+        <v>1.3888888888888891</v>
+      </c>
       <c r="L31">
         <v>30</v>
       </c>
@@ -6541,15 +6935,35 @@
         <v>1.5016</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E36" si="10">ROUND(D32^0.8, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <f>480+270</f>
+        <v>750</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="9"/>
+        <v>0.88888888888888895</v>
+      </c>
       <c r="L32">
         <v>31</v>
       </c>
@@ -6583,15 +6997,35 @@
         <v>1.6294999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <f>480+100</f>
+        <v>580</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="9"/>
+        <v>1.149425287356322</v>
+      </c>
       <c r="L33">
         <v>32</v>
       </c>
@@ -6625,7 +7059,35 @@
         <v>1.7628000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <f>480+400</f>
+        <v>880</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="9"/>
+        <v>0.75757575757575768</v>
+      </c>
       <c r="L34">
         <v>33</v>
       </c>
@@ -6659,7 +7121,35 @@
         <v>1.9015000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <f>480+270+100+400</f>
+        <v>1250</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="9"/>
+        <v>0.53333333333333344</v>
+      </c>
       <c r="L35">
         <v>34</v>
       </c>
@@ -6693,7 +7183,35 @@
         <v>2.0456000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <f>480</f>
+        <v>480</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="9"/>
+        <v>1.3888888888888891</v>
+      </c>
       <c r="L36">
         <v>35</v>
       </c>
@@ -6727,7 +7245,7 @@
         <v>2.1951000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L37">
         <v>36</v>
       </c>
@@ -6761,7 +7279,7 @@
         <v>2.3500000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L38">
         <v>37</v>
       </c>
@@ -6795,7 +7313,7 @@
         <v>2.5103000000000009</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L39">
         <v>38</v>
       </c>
@@ -6829,7 +7347,7 @@
         <v>2.6760000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L40">
         <v>39</v>
       </c>
@@ -6863,7 +7381,7 @@
         <v>2.8471000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L41">
         <v>40</v>
       </c>
@@ -6895,6 +7413,686 @@
       <c r="U41">
         <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
         <v>3.0236000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>935</v>
+      </c>
+      <c r="N42">
+        <v>1310</v>
+      </c>
+      <c r="O42">
+        <v>3000</v>
+      </c>
+      <c r="P42">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.401</v>
+      </c>
+      <c r="Q42" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="R42">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.437</v>
+      </c>
+      <c r="S42" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.5579912667799203</v>
+      </c>
+      <c r="U42">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>3.2055000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>42</v>
+      </c>
+      <c r="M43">
+        <v>825</v>
+      </c>
+      <c r="N43">
+        <v>1040</v>
+      </c>
+      <c r="O43">
+        <v>2800</v>
+      </c>
+      <c r="P43">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="R43">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.371</v>
+      </c>
+      <c r="S43" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.382321526846038</v>
+      </c>
+      <c r="U43">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>3.3928000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>43</v>
+      </c>
+      <c r="M44">
+        <v>725</v>
+      </c>
+      <c r="N44">
+        <v>1120</v>
+      </c>
+      <c r="O44">
+        <v>2600</v>
+      </c>
+      <c r="P44">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="Q44" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>3.5859999999999999</v>
+      </c>
+      <c r="R44">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="S44" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>3.0296561566174636</v>
+      </c>
+      <c r="U44">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>3.5855000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>44</v>
+      </c>
+      <c r="M45">
+        <v>795</v>
+      </c>
+      <c r="N45">
+        <v>875</v>
+      </c>
+      <c r="O45">
+        <v>3000</v>
+      </c>
+      <c r="P45">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.101</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>3.774</v>
+      </c>
+      <c r="R45">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="S45" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.0094643095053262</v>
+      </c>
+      <c r="U45">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>3.7835999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>45</v>
+      </c>
+      <c r="M46">
+        <v>880</v>
+      </c>
+      <c r="N46">
+        <v>1795</v>
+      </c>
+      <c r="O46">
+        <v>3500</v>
+      </c>
+      <c r="P46">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.04</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="R46">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="S46" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>3.4478451982674705</v>
+      </c>
+      <c r="U46">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>3.9871000000000008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>46</v>
+      </c>
+      <c r="M47">
+        <v>715</v>
+      </c>
+      <c r="N47">
+        <v>1130</v>
+      </c>
+      <c r="O47">
+        <v>3000</v>
+      </c>
+      <c r="P47">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.58</v>
+      </c>
+      <c r="Q47" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>4.1959999999999997</v>
+      </c>
+      <c r="R47">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.377</v>
+      </c>
+      <c r="S47" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.8854381817288473</v>
+      </c>
+      <c r="U47">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>4.1960000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>47</v>
+      </c>
+      <c r="M48">
+        <v>905</v>
+      </c>
+      <c r="N48">
+        <v>1100</v>
+      </c>
+      <c r="O48">
+        <v>4000</v>
+      </c>
+      <c r="P48">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="Q48" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>4.42</v>
+      </c>
+      <c r="R48">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="S48" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>1.9218262023122747</v>
+      </c>
+      <c r="U48">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>4.4103000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>48</v>
+      </c>
+      <c r="M49">
+        <v>865</v>
+      </c>
+      <c r="N49">
+        <v>1300</v>
+      </c>
+      <c r="O49">
+        <v>4000</v>
+      </c>
+      <c r="P49">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="Q49" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>4.6239999999999997</v>
+      </c>
+      <c r="R49">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="S49" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.3762780105311521</v>
+      </c>
+      <c r="U49">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>4.6300000000000008</v>
+      </c>
+    </row>
+    <row r="50" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>49</v>
+      </c>
+      <c r="M50">
+        <v>937</v>
+      </c>
+      <c r="N50">
+        <v>1463</v>
+      </c>
+      <c r="O50">
+        <v>4550</v>
+      </c>
+      <c r="P50">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="Q50" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="R50">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="S50" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.3147230528819445</v>
+      </c>
+      <c r="U50">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>4.8551000000000011</v>
+      </c>
+    </row>
+    <row r="51" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>945</v>
+      </c>
+      <c r="N51">
+        <v>1810</v>
+      </c>
+      <c r="O51">
+        <v>4800</v>
+      </c>
+      <c r="P51">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.915</v>
+      </c>
+      <c r="Q51" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>5.0789999999999997</v>
+      </c>
+      <c r="R51">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.377</v>
+      </c>
+      <c r="S51" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.7645608127863031</v>
+      </c>
+      <c r="U51">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>5.0856000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>51</v>
+      </c>
+      <c r="M52">
+        <v>845</v>
+      </c>
+      <c r="N52">
+        <v>1300</v>
+      </c>
+      <c r="O52">
+        <v>4500</v>
+      </c>
+      <c r="P52">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.538</v>
+      </c>
+      <c r="Q52" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="R52">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="S52" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.2934030538459385</v>
+      </c>
+      <c r="U52">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>5.3215000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>52</v>
+      </c>
+      <c r="M53">
+        <v>895</v>
+      </c>
+      <c r="N53">
+        <v>1050</v>
+      </c>
+      <c r="O53">
+        <v>5000</v>
+      </c>
+      <c r="P53">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.173</v>
+      </c>
+      <c r="Q53" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>5.5869999999999997</v>
+      </c>
+      <c r="R53">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.21</v>
+      </c>
+      <c r="S53" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>1.6591332295997203</v>
+      </c>
+      <c r="U53">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>5.5628000000000011</v>
+      </c>
+    </row>
+    <row r="54" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>53</v>
+      </c>
+      <c r="M54">
+        <v>775</v>
+      </c>
+      <c r="N54">
+        <v>1450</v>
+      </c>
+      <c r="O54">
+        <v>4500</v>
+      </c>
+      <c r="P54">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.871</v>
+      </c>
+      <c r="Q54" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>5.806</v>
+      </c>
+      <c r="R54">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="S54" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.7890740364513507</v>
+      </c>
+      <c r="U54">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>5.8095000000000008</v>
+      </c>
+    </row>
+    <row r="55" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>54</v>
+      </c>
+      <c r="M55">
+        <v>955</v>
+      </c>
+      <c r="N55">
+        <v>2000</v>
+      </c>
+      <c r="O55">
+        <v>5800</v>
+      </c>
+      <c r="P55">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="Q55" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>6.0730000000000004</v>
+      </c>
+      <c r="R55">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="S55" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.7498729394706292</v>
+      </c>
+      <c r="U55">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>6.0616000000000012</v>
+      </c>
+    </row>
+    <row r="56" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>55</v>
+      </c>
+      <c r="M56">
+        <v>855</v>
+      </c>
+      <c r="N56">
+        <v>2360</v>
+      </c>
+      <c r="O56">
+        <v>5400</v>
+      </c>
+      <c r="P56">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.76</v>
+      </c>
+      <c r="Q56" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>6.3159999999999998</v>
+      </c>
+      <c r="R56">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.437</v>
+      </c>
+      <c r="S56" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>3.7562025945213122</v>
+      </c>
+      <c r="U56">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>6.3191000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>56</v>
+      </c>
+      <c r="M57">
+        <v>915</v>
+      </c>
+      <c r="N57">
+        <v>1750</v>
+      </c>
+      <c r="O57">
+        <v>6000</v>
+      </c>
+      <c r="P57">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.913</v>
+      </c>
+      <c r="Q57" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>6.5570000000000004</v>
+      </c>
+      <c r="R57">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="S57" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.4691150658881527</v>
+      </c>
+      <c r="U57">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>6.5819999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>57</v>
+      </c>
+      <c r="M58">
+        <v>885</v>
+      </c>
+      <c r="N58">
+        <v>1510</v>
+      </c>
+      <c r="O58">
+        <v>6100</v>
+      </c>
+      <c r="P58">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.706</v>
+      </c>
+      <c r="Q58" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>6.8929999999999998</v>
+      </c>
+      <c r="R58">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.248</v>
+      </c>
+      <c r="S58" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.1845840530923493</v>
+      </c>
+      <c r="U58">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>6.8503000000000016</v>
+      </c>
+    </row>
+    <row r="59" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>58</v>
+      </c>
+      <c r="M59">
+        <v>985</v>
+      </c>
+      <c r="N59">
+        <v>2200</v>
+      </c>
+      <c r="O59">
+        <v>7000</v>
+      </c>
+      <c r="P59">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.234</v>
+      </c>
+      <c r="Q59" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>7.1070000000000002</v>
+      </c>
+      <c r="R59">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.314</v>
+      </c>
+      <c r="S59" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.6695461325235188</v>
+      </c>
+      <c r="U59">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>7.1240000000000014</v>
+      </c>
+    </row>
+    <row r="60" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>59</v>
+      </c>
+      <c r="M60">
+        <v>675</v>
+      </c>
+      <c r="N60">
+        <v>975</v>
+      </c>
+      <c r="O60">
+        <v>5000</v>
+      </c>
+      <c r="P60">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.444</v>
+      </c>
+      <c r="Q60" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>7.407</v>
+      </c>
+      <c r="R60">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S60" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.0427529234278037</v>
+      </c>
+      <c r="U60">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>7.4031000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>60</v>
+      </c>
+      <c r="M61">
+        <v>785</v>
+      </c>
+      <c r="N61">
+        <v>1150</v>
+      </c>
+      <c r="O61">
+        <v>6000</v>
+      </c>
+      <c r="P61">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="Q61" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>7.6429999999999998</v>
+      </c>
+      <c r="R61">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.192</v>
+      </c>
+      <c r="S61" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>1.8912657529250654</v>
+      </c>
+      <c r="U61">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>7.6876000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -6948,18 +8146,18 @@
       <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -7003,7 +8201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7056,7 +8254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7109,7 +8307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7162,7 +8360,7 @@
         <v>1.806</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7215,7 +8413,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7268,7 +8466,7 @@
         <v>1.585</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7320,16 +8518,16 @@
         <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>1.498</v>
       </c>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="10"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="9"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L8">
         <v>7</v>
       </c>
@@ -7354,16 +8552,16 @@
         <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>1.446</v>
       </c>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="10"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="9"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L9">
         <v>8</v>
       </c>
@@ -7388,16 +8586,16 @@
         <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>1.4350000000000001</v>
       </c>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="10"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="9"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L10">
         <v>9</v>
       </c>
@@ -7422,16 +8620,16 @@
         <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>1.625</v>
       </c>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="10"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="9"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -7459,16 +8657,16 @@
         <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>1.4550000000000001</v>
       </c>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="10"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="9"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -7517,16 +8715,16 @@
         <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>1.37</v>
       </c>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="10"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="9"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7578,16 +8776,16 @@
         <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>1.333</v>
       </c>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="10"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="9"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -7639,16 +8837,16 @@
         <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>1.4</v>
       </c>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="10"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="9"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -7700,16 +8898,16 @@
         <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>1.3220000000000001</v>
       </c>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="10"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="9"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -7762,16 +8960,16 @@
         <f>ROUND(Waves3[[#This Row],[Money]]/Waves3[[#This Row],[Health]],3)</f>
         <v>1.4219999999999999</v>
       </c>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="10"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -7824,7 +9022,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -7877,7 +9075,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L19">
         <v>18</v>
       </c>
@@ -7903,7 +9101,7 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L20">
         <v>19</v>
       </c>
@@ -7929,7 +9127,7 @@
         <v>1.145</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L21">
         <v>20</v>
       </c>
@@ -7955,7 +9153,7 @@
         <v>1.127</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L22">
         <v>21</v>
       </c>
@@ -7981,7 +9179,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L23">
         <v>22</v>
       </c>
@@ -8007,7 +9205,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L24">
         <v>23</v>
       </c>
@@ -8033,7 +9231,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L25">
         <v>24</v>
       </c>
@@ -8059,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L26">
         <v>25</v>
       </c>
@@ -8085,7 +9283,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L27">
         <v>26</v>
       </c>
@@ -8111,7 +9309,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L28">
         <v>27</v>
       </c>
@@ -8137,7 +9335,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L29">
         <v>28</v>
       </c>
@@ -8163,7 +9361,7 @@
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L30">
         <v>29</v>
       </c>
@@ -8189,7 +9387,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L31">
         <v>30</v>
       </c>
@@ -8215,7 +9413,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L32">
         <v>31</v>
       </c>
@@ -8241,7 +9439,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L33">
         <v>32</v>
       </c>
@@ -8267,7 +9465,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="34" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L34">
         <v>33</v>
       </c>
@@ -8293,7 +9491,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L35">
         <v>34</v>
       </c>
@@ -8319,7 +9517,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L36">
         <v>35</v>
       </c>
@@ -8345,7 +9543,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L37">
         <v>36</v>
       </c>
@@ -8371,7 +9569,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L38">
         <v>37</v>
       </c>
@@ -8397,7 +9595,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="39" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L39">
         <v>38</v>
       </c>
@@ -8423,7 +9621,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="40" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L40">
         <v>39</v>
       </c>
@@ -8449,7 +9647,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="41" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L41">
         <v>40</v>
       </c>

--- a/Towers & Upgrades.xlsx
+++ b/Towers & Upgrades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\Programming\Python\Points TD 2\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EEF95B-E844-46FB-984D-55170316B81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112DFEA-7410-45F9-A088-634DFE57E0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>Ninja</t>
   </si>
@@ -144,28 +144,22 @@
     <t>=1.5</t>
   </si>
   <si>
-    <t>=1</t>
-  </si>
-  <si>
-    <t>=1.2 - 1.5</t>
-  </si>
-  <si>
-    <t>Ticks per s</t>
-  </si>
-  <si>
     <t>fast</t>
-  </si>
-  <si>
-    <t>original</t>
-  </si>
-  <si>
-    <t>all</t>
   </si>
   <si>
     <t>=1.7</t>
   </si>
   <si>
-    <t>1+3</t>
+    <t>Spike Factory</t>
+  </si>
+  <si>
+    <t>Ticks per second</t>
+  </si>
+  <si>
+    <t>=0.9 - 1.1</t>
+  </si>
+  <si>
+    <t>=1.0 - 1.5</t>
   </si>
 </sst>
 </file>
@@ -5331,12 +5325,12 @@
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -5407,13 +5401,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2^0.8, 2)</f>
+        <f>ROUND(D2^0.75, 2)</f>
         <v>1</v>
       </c>
       <c r="F2" s="1">
@@ -5421,11 +5415,11 @@
       </c>
       <c r="G2">
         <f>100/C2*B2*E2</f>
-        <v>4.166666666666667</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="H2" s="2">
         <f>G2*100/F2</f>
-        <v>1.4880952380952381</v>
+        <v>1.5527950310559004</v>
       </c>
       <c r="I2" s="10"/>
       <c r="L2">
@@ -5469,25 +5463,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">ROUND(D3^0.8, 2)</f>
-        <v>2.41</v>
+        <f t="shared" ref="E3:E8" si="0">ROUND(D3^0.75, 2)</f>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F3" s="1">
         <v>680</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="1">100/C3*B3*E3</f>
-        <v>9.64</v>
+        <v>9.9130434782608674</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="2">G3*100/F3</f>
-        <v>1.4176470588235295</v>
+        <v>1.4578005115089512</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>34</v>
@@ -5533,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -5543,15 +5537,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="2"/>
-        <v>1.3888888888888891</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="I4" s="10"/>
       <c r="L4">
@@ -5588,7 +5582,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -5650,7 +5644,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -5678,7 +5672,7 @@
         <v>0.96153846153846156</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -5714,7 +5708,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -5776,6 +5770,34 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>800</v>
+      </c>
+      <c r="G8">
+        <f>100/C8*B8*E8</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="H8" s="2">
+        <f>G8*100/F8</f>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="I8" s="12"/>
       <c r="L8">
         <v>7</v>
       </c>
@@ -5989,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>ROUND(D13^0.8, 2)</f>
+        <f>ROUND(D13^0.75, 2)</f>
         <v>1</v>
       </c>
       <c r="F13" s="1">
@@ -6045,28 +6067,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E19" si="3">ROUND(D14^0.8, 2)</f>
-        <v>3.62</v>
+        <f t="shared" ref="E14:E19" si="3">ROUND(D14^0.75, 2)</f>
+        <v>3.34</v>
       </c>
       <c r="F14" s="1">
-        <v>2110</v>
+        <v>2150</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14:G19" si="4">100/C14*B14*E14</f>
-        <v>36.200000000000003</v>
+        <v>35.15789473684211</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ref="H14:H19" si="5">G14*100/F14</f>
-        <v>1.7156398104265405</v>
+        <v>1.6352509179926562</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L14">
         <v>13</v>
@@ -6109,7 +6131,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -6119,15 +6141,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1200</v>
+        <v>1290</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
-        <v>2.0833333333333335</v>
+        <v>1.722652885443583</v>
       </c>
       <c r="I15" s="10"/>
       <c r="L15">
@@ -6241,21 +6263,21 @@
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="F17" s="1">
         <v>2200</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>27.84</v>
+        <v>26.88</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="5"/>
-        <v>1.2654545454545454</v>
+        <v>1.2218181818181819</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L17">
         <v>16</v>
@@ -6353,11 +6375,14 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -6367,16 +6392,17 @@
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>280</v>
+        <v>2480</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>4.166666666666667</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="5"/>
-        <v>1.4880952380952381</v>
-      </c>
+        <v>0.89605734767025091</v>
+      </c>
+      <c r="I19" s="12"/>
       <c r="L19">
         <v>18</v>
       </c>
@@ -6557,7 +6583,7 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>60</v>
@@ -6610,7 +6636,7 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>120</v>
@@ -6874,34 +6900,6 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E36" si="7">ROUND(D31^0.8, 2)</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <f>480</f>
-        <v>480</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ref="G31:G36" si="8">100/C31*B31*E31</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" ref="H31:H36" si="9">G31*100/F31</f>
-        <v>1.3888888888888891</v>
-      </c>
       <c r="L31">
         <v>30</v>
       </c>
@@ -6936,34 +6934,6 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>15</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ref="E32:E36" si="10">ROUND(D32^0.8, 2)</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <f>480+270</f>
-        <v>750</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="8"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="9"/>
-        <v>0.88888888888888895</v>
-      </c>
       <c r="L32">
         <v>31</v>
       </c>
@@ -6997,35 +6967,7 @@
         <v>1.6294999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>15</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <f>480+100</f>
-        <v>580</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="8"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="9"/>
-        <v>1.149425287356322</v>
-      </c>
+    <row r="33" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L33">
         <v>32</v>
       </c>
@@ -7059,35 +7001,7 @@
         <v>1.7628000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <f>480+400</f>
-        <v>880</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="8"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="9"/>
-        <v>0.75757575757575768</v>
-      </c>
+    <row r="34" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L34">
         <v>33</v>
       </c>
@@ -7121,35 +7035,7 @@
         <v>1.9015000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>15</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <f>480+270+100+400</f>
-        <v>1250</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="9"/>
-        <v>0.53333333333333344</v>
-      </c>
+    <row r="35" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L35">
         <v>34</v>
       </c>
@@ -7183,35 +7069,7 @@
         <v>2.0456000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>15</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <f>480</f>
-        <v>480</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="8"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="9"/>
-        <v>1.3888888888888891</v>
-      </c>
+    <row r="36" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L36">
         <v>35</v>
       </c>
@@ -7245,7 +7103,7 @@
         <v>2.1951000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L37">
         <v>36</v>
       </c>
@@ -7279,7 +7137,7 @@
         <v>2.3500000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L38">
         <v>37</v>
       </c>
@@ -7313,7 +7171,7 @@
         <v>2.5103000000000009</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L39">
         <v>38</v>
       </c>
@@ -7347,7 +7205,7 @@
         <v>2.6760000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L40">
         <v>39</v>
       </c>
@@ -7381,7 +7239,7 @@
         <v>2.8471000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L41">
         <v>40</v>
       </c>
@@ -7415,7 +7273,7 @@
         <v>3.0236000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L42">
         <v>41</v>
       </c>
@@ -7449,7 +7307,7 @@
         <v>3.2055000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L43">
         <v>42</v>
       </c>
@@ -7483,7 +7341,7 @@
         <v>3.3928000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L44">
         <v>43</v>
       </c>
@@ -7517,7 +7375,7 @@
         <v>3.5855000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L45">
         <v>44</v>
       </c>
@@ -7551,7 +7409,7 @@
         <v>3.7835999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L46">
         <v>45</v>
       </c>
@@ -7585,7 +7443,7 @@
         <v>3.9871000000000008</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L47">
         <v>46</v>
       </c>
@@ -7619,7 +7477,7 @@
         <v>4.1960000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L48">
         <v>47</v>
       </c>

--- a/Towers & Upgrades.xlsx
+++ b/Towers & Upgrades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\Programming\Python\Points TD 2\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112DFEA-7410-45F9-A088-634DFE57E0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA2C7D6-03F7-466E-9057-9870C19E95D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>Ninja</t>
   </si>
@@ -141,13 +141,7 @@
     <t>Should be</t>
   </si>
   <si>
-    <t>=1.5</t>
-  </si>
-  <si>
     <t>fast</t>
-  </si>
-  <si>
-    <t>=1.7</t>
   </si>
   <si>
     <t>Spike Factory</t>
@@ -156,10 +150,16 @@
     <t>Ticks per second</t>
   </si>
   <si>
-    <t>=0.9 - 1.1</t>
+    <t>Particle accelerator</t>
   </si>
   <si>
-    <t>=1.0 - 1.5</t>
+    <t>=1.6</t>
+  </si>
+  <si>
+    <t>=1.8</t>
+  </si>
+  <si>
+    <t>=1.0 - 1.2</t>
   </si>
 </sst>
 </file>
@@ -185,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -281,6 +287,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -451,10 +459,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$Q$2:$Q$61</c:f>
+              <c:f>Tabelle1!$Q$2:$Q$71</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -519,7 +527,7 @@
                   <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.621</c:v>
+                  <c:v>0.61799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.71799999999999997</c:v>
@@ -546,7 +554,7 @@
                   <c:v>1.5629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.62</c:v>
+                  <c:v>1.6240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.776</c:v>
@@ -634,6 +642,36 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>7.6429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.9740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.2759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.5809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.8480000000000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.2040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.5239999999999991</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.8290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.145</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.448</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,10 +1009,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$P$2:$P$61</c:f>
+              <c:f>Tabelle1!$P$2:$P$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0.14899999999999999</c:v>
                 </c:pt>
@@ -1039,7 +1077,7 @@
                   <c:v>0.60699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.55900000000000005</c:v>
+                  <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.66300000000000003</c:v>
@@ -1066,7 +1104,7 @@
                   <c:v>1.359</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.76800000000000002</c:v>
+                  <c:v>0.74099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.93200000000000005</c:v>
@@ -1154,6 +1192,36 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1.4650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.974</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.903</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.319</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.617</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9350000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,10 +1265,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$R$2:$R$61</c:f>
+              <c:f>Tabelle1!$R$2:$R$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1265,7 +1333,7 @@
                   <c:v>1.0740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9</c:v>
+                  <c:v>0.91500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.92300000000000004</c:v>
@@ -1292,7 +1360,7 @@
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47399999999999998</c:v>
+                  <c:v>0.45600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.52500000000000002</c:v>
@@ -1380,6 +1448,36 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1408,10 +1506,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$S$2:$S$61</c:f>
+              <c:f>Tabelle1!$S$2:$S$71</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>2.110766511004619</c:v>
                 </c:pt>
@@ -1476,7 +1574,7 @@
                   <c:v>2.6135315192557318</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4999517760867214</c:v>
+                  <c:v>2.3279003328796541</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2.6004349410587939</c:v>
@@ -1503,7 +1601,7 @@
                   <c:v>3.5098911575004714</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2635455240681388</c:v>
+                  <c:v>1.8527918781725889</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2.4146359263287054</c:v>
@@ -1591,6 +1689,36 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1.8912657529250654</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5272639045578162</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0477842979947263</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6184303884606215</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2273284981566666</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.2152975975887177</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.9631141306864848</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9464094480391461</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.2518799886010314</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.3191002867682267</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7371875400769583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5013,8 +5141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}" name="Waves" displayName="Waves" ref="L1:S61" totalsRowShown="0">
-  <autoFilter ref="L1:S61" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}" name="Waves" displayName="Waves" ref="L1:S71" totalsRowShown="0">
+  <autoFilter ref="L1:S71" xr:uid="{11DBD5DE-DC35-4FD7-B8BD-DDD800B12F15}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C596E476-F34D-48B8-BAB6-31EDA5A2D2AB}" name="Wave"/>
     <tableColumn id="2" xr3:uid="{658BD531-EA5F-4C0A-AC63-7FBA171C7055}" name="Time"/>
@@ -5322,15 +5450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M25" sqref="M25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -5401,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -5415,11 +5543,11 @@
       </c>
       <c r="G2">
         <f>100/C2*B2*E2</f>
-        <v>4.3478260869565215</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="H2" s="2">
         <f>G2*100/F2</f>
-        <v>1.5527950310559004</v>
+        <v>1.6233766233766234</v>
       </c>
       <c r="I2" s="10"/>
       <c r="L2">
@@ -5463,13 +5591,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">ROUND(D3^0.75, 2)</f>
+        <f t="shared" ref="E3:E9" si="0">ROUND(D3^0.75, 2)</f>
         <v>2.2799999999999998</v>
       </c>
       <c r="F3" s="1">
@@ -5477,14 +5605,14 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="1">100/C3*B3*E3</f>
-        <v>9.9130434782608674</v>
+        <v>10.857142857142856</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="2">G3*100/F3</f>
-        <v>1.4578005115089512</v>
+        <v>1.5966386554621845</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -5527,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -5541,11 +5669,11 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>7.6923076923076925</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="2"/>
-        <v>1.5384615384615385</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I4" s="10"/>
       <c r="L4">
@@ -5589,7 +5717,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5603,11 +5731,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>5.4545454545454541</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>0.99173553719008256</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="I5" s="12"/>
       <c r="L5">
@@ -5651,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5665,14 +5793,14 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>7.6923076923076925</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>0.96153846153846156</v>
+        <v>1.0869565217391304</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -5715,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5729,11 +5857,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>0.95238095238095244</v>
+        <v>1.0204081632653061</v>
       </c>
       <c r="I7" s="12"/>
       <c r="L7">
@@ -5771,13 +5899,13 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -5791,11 +5919,11 @@
       </c>
       <c r="G8">
         <f>100/C8*B8*E8</f>
-        <v>7.6923076923076925</v>
+        <v>7.9365079365079358</v>
       </c>
       <c r="H8" s="2">
         <f>G8*100/F8</f>
-        <v>0.96153846153846156</v>
+        <v>0.99206349206349198</v>
       </c>
       <c r="I8" s="12"/>
       <c r="L8">
@@ -5832,6 +5960,34 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G9">
+        <f>100/C9*B9*E9</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H9" s="2">
+        <f>G9*100/F9</f>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="I9" s="14"/>
       <c r="L9">
         <v>8</v>
       </c>
@@ -6005,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -6019,11 +6175,11 @@
       </c>
       <c r="G13">
         <f>100/C13*B13*E13</f>
-        <v>14.285714285714286</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="H13" s="2">
         <f>G13*100/F13</f>
-        <v>1.7211703958691911</v>
+        <v>1.8535681186283597</v>
       </c>
       <c r="I13" s="10"/>
       <c r="L13">
@@ -6067,13 +6223,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E19" si="3">ROUND(D14^0.75, 2)</f>
+        <f t="shared" ref="E14:E20" si="3">ROUND(D14^0.75, 2)</f>
         <v>3.34</v>
       </c>
       <c r="F14" s="1">
@@ -6081,14 +6237,14 @@
       </c>
       <c r="G14">
         <f t="shared" ref="G14:G19" si="4">100/C14*B14*E14</f>
-        <v>35.15789473684211</v>
+        <v>38.171428571428571</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ref="H14:H19" si="5">G14*100/F14</f>
-        <v>1.6352509179926562</v>
+        <v>1.7754152823920264</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L14">
         <v>13</v>
@@ -6141,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1290</v>
+        <v>1270</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
@@ -6149,7 +6305,7 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
-        <v>1.722652885443583</v>
+        <v>1.7497812773403325</v>
       </c>
       <c r="I15" s="10"/>
       <c r="L15">
@@ -6193,7 +6349,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6208,11 +6364,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
-        <v>14.285714285714286</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="5"/>
-        <v>0.88731144631765757</v>
+        <v>1.0351966873706004</v>
       </c>
       <c r="I16" s="12"/>
       <c r="L16">
@@ -6256,7 +6412,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -6270,11 +6426,11 @@
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>26.88</v>
+        <v>29.217391304347824</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="5"/>
-        <v>1.2218181818181819</v>
+        <v>1.3280632411067192</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>40</v>
@@ -6320,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -6330,15 +6486,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
-        <v>4.5454545454545459</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="5"/>
-        <v>0.64935064935064934</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="I18" s="12"/>
       <c r="L18">
@@ -6376,13 +6532,13 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -6396,11 +6552,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>22.222222222222221</v>
+        <v>23.255813953488374</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="5"/>
-        <v>0.89605734767025091</v>
+        <v>0.93773443360840214</v>
       </c>
       <c r="I19" s="12"/>
       <c r="L19">
@@ -6437,6 +6593,34 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>1.68</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3250</v>
+      </c>
+      <c r="G20">
+        <f>100/C20*B20*E20</f>
+        <v>56</v>
+      </c>
+      <c r="H20" s="2">
+        <f>G20*100/F20</f>
+        <v>1.7230769230769232</v>
+      </c>
+      <c r="I20" s="14"/>
       <c r="L20">
         <v>19</v>
       </c>
@@ -6543,29 +6727,29 @@
         <v>22</v>
       </c>
       <c r="M23">
-        <v>805</v>
+        <v>955</v>
       </c>
       <c r="N23">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="O23">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="P23">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.55900000000000005</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="Q23" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.621</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="R23">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.9</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="S23" s="5">
         <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
-        <v>2.4999517760867214</v>
+        <v>2.3279003328796541</v>
       </c>
       <c r="U23">
         <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
@@ -6583,7 +6767,7 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>60</v>
@@ -6636,7 +6820,7 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>120</v>
@@ -6934,40 +7118,56 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
       <c r="L32">
         <v>31</v>
       </c>
       <c r="M32">
-        <v>710</v>
+        <v>985</v>
       </c>
       <c r="N32">
-        <v>545</v>
+        <v>730</v>
       </c>
       <c r="O32">
-        <v>1150</v>
+        <v>1600</v>
       </c>
       <c r="P32">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
-        <v>0.76800000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="Q32" s="4">
         <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
-        <v>1.62</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="R32">
         <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
-        <v>0.47399999999999998</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="S32" s="5">
         <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
-        <v>2.2635455240681388</v>
+        <v>1.8527918781725889</v>
       </c>
       <c r="U32">
         <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
         <v>1.6294999999999999</v>
       </c>
     </row>
-    <row r="33" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
       <c r="L33">
         <v>32</v>
       </c>
@@ -7001,7 +7201,15 @@
         <v>1.7628000000000001</v>
       </c>
     </row>
-    <row r="34" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
       <c r="L34">
         <v>33</v>
       </c>
@@ -7035,7 +7243,15 @@
         <v>1.9015000000000002</v>
       </c>
     </row>
-    <row r="35" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
       <c r="L35">
         <v>34</v>
       </c>
@@ -7069,7 +7285,15 @@
         <v>2.0456000000000003</v>
       </c>
     </row>
-    <row r="36" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
       <c r="L36">
         <v>35</v>
       </c>
@@ -7103,7 +7327,7 @@
         <v>2.1951000000000001</v>
       </c>
     </row>
-    <row r="37" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L37">
         <v>36</v>
       </c>
@@ -7137,7 +7361,7 @@
         <v>2.3500000000000005</v>
       </c>
     </row>
-    <row r="38" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L38">
         <v>37</v>
       </c>
@@ -7171,7 +7395,7 @@
         <v>2.5103000000000009</v>
       </c>
     </row>
-    <row r="39" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L39">
         <v>38</v>
       </c>
@@ -7205,7 +7429,7 @@
         <v>2.6760000000000002</v>
       </c>
     </row>
-    <row r="40" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L40">
         <v>39</v>
       </c>
@@ -7239,7 +7463,7 @@
         <v>2.8471000000000002</v>
       </c>
     </row>
-    <row r="41" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L41">
         <v>40</v>
       </c>
@@ -7273,7 +7497,7 @@
         <v>3.0236000000000005</v>
       </c>
     </row>
-    <row r="42" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L42">
         <v>41</v>
       </c>
@@ -7307,7 +7531,7 @@
         <v>3.2055000000000007</v>
       </c>
     </row>
-    <row r="43" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L43">
         <v>42</v>
       </c>
@@ -7341,7 +7565,7 @@
         <v>3.3928000000000007</v>
       </c>
     </row>
-    <row r="44" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L44">
         <v>43</v>
       </c>
@@ -7375,7 +7599,7 @@
         <v>3.5855000000000006</v>
       </c>
     </row>
-    <row r="45" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L45">
         <v>44</v>
       </c>
@@ -7409,7 +7633,7 @@
         <v>3.7835999999999999</v>
       </c>
     </row>
-    <row r="46" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L46">
         <v>45</v>
       </c>
@@ -7443,7 +7667,7 @@
         <v>3.9871000000000008</v>
       </c>
     </row>
-    <row r="47" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L47">
         <v>46</v>
       </c>
@@ -7477,7 +7701,7 @@
         <v>4.1960000000000006</v>
       </c>
     </row>
-    <row r="48" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L48">
         <v>47</v>
       </c>
@@ -7951,6 +8175,346 @@
       <c r="U61">
         <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
         <v>7.6876000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>61</v>
+      </c>
+      <c r="M62">
+        <v>765</v>
+      </c>
+      <c r="N62">
+        <v>1510</v>
+      </c>
+      <c r="O62">
+        <v>6100</v>
+      </c>
+      <c r="P62">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.974</v>
+      </c>
+      <c r="Q62" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>7.9740000000000002</v>
+      </c>
+      <c r="R62">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.248</v>
+      </c>
+      <c r="S62" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.5272639045578162</v>
+      </c>
+      <c r="U62">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>7.9775000000000018</v>
+      </c>
+    </row>
+    <row r="63" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>62</v>
+      </c>
+      <c r="M63">
+        <v>725</v>
+      </c>
+      <c r="N63">
+        <v>1150</v>
+      </c>
+      <c r="O63">
+        <v>6000</v>
+      </c>
+      <c r="P63">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="Q63" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>8.2759999999999998</v>
+      </c>
+      <c r="R63">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.192</v>
+      </c>
+      <c r="S63" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.0477842979947263</v>
+      </c>
+      <c r="U63">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>8.2728000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>63</v>
+      </c>
+      <c r="M64">
+        <v>874</v>
+      </c>
+      <c r="N64">
+        <v>1225</v>
+      </c>
+      <c r="O64">
+        <v>7500</v>
+      </c>
+      <c r="P64">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="Q64" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>8.5809999999999995</v>
+      </c>
+      <c r="R64">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="S64" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>1.6184303884606215</v>
+      </c>
+      <c r="U64">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>8.5734999999999992</v>
+      </c>
+    </row>
+    <row r="65" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>64</v>
+      </c>
+      <c r="M65">
+        <v>825</v>
+      </c>
+      <c r="N65">
+        <v>1570</v>
+      </c>
+      <c r="O65">
+        <v>7300</v>
+      </c>
+      <c r="P65">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.903</v>
+      </c>
+      <c r="Q65" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>8.8480000000000008</v>
+      </c>
+      <c r="R65">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.215</v>
+      </c>
+      <c r="S65" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.2273284981566666</v>
+      </c>
+      <c r="U65">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>8.8795999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>65</v>
+      </c>
+      <c r="M66">
+        <v>565</v>
+      </c>
+      <c r="N66">
+        <v>1310</v>
+      </c>
+      <c r="O66">
+        <v>5200</v>
+      </c>
+      <c r="P66">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.319</v>
+      </c>
+      <c r="Q66" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>9.2040000000000006</v>
+      </c>
+      <c r="R66">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.252</v>
+      </c>
+      <c r="S66" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>3.2152975975887177</v>
+      </c>
+      <c r="U66">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>9.1911000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>66</v>
+      </c>
+      <c r="M67">
+        <v>525</v>
+      </c>
+      <c r="N67">
+        <v>1100</v>
+      </c>
+      <c r="O67">
+        <v>5000</v>
+      </c>
+      <c r="P67">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="Q67" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>9.5239999999999991</v>
+      </c>
+      <c r="R67">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.22</v>
+      </c>
+      <c r="S67" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.9631141306864848</v>
+      </c>
+      <c r="U67">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>9.5079999999999991</v>
+      </c>
+    </row>
+    <row r="68" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>67</v>
+      </c>
+      <c r="M68">
+        <v>702</v>
+      </c>
+      <c r="N68">
+        <v>1135</v>
+      </c>
+      <c r="O68">
+        <v>6900</v>
+      </c>
+      <c r="P68">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.617</v>
+      </c>
+      <c r="Q68" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>9.8290000000000006</v>
+      </c>
+      <c r="R68">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="S68" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>1.9464094480391461</v>
+      </c>
+      <c r="U68">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>9.8302999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>68</v>
+      </c>
+      <c r="M69">
+        <v>690</v>
+      </c>
+      <c r="N69">
+        <v>1300</v>
+      </c>
+      <c r="O69">
+        <v>7000</v>
+      </c>
+      <c r="P69">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="Q69" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>10.145</v>
+      </c>
+      <c r="R69">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.186</v>
+      </c>
+      <c r="S69" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.2518799886010314</v>
+      </c>
+      <c r="U69">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>10.157999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>69</v>
+      </c>
+      <c r="M70">
+        <v>670</v>
+      </c>
+      <c r="N70">
+        <v>1300</v>
+      </c>
+      <c r="O70">
+        <v>7000</v>
+      </c>
+      <c r="P70">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.94</v>
+      </c>
+      <c r="Q70" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>10.448</v>
+      </c>
+      <c r="R70">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.186</v>
+      </c>
+      <c r="S70" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.3191002867682267</v>
+      </c>
+      <c r="U70">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>10.491099999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>70</v>
+      </c>
+      <c r="M71">
+        <v>465</v>
+      </c>
+      <c r="N71">
+        <v>900</v>
+      </c>
+      <c r="O71">
+        <v>5000</v>
+      </c>
+      <c r="P71">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]],3)</f>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="Q71" s="4">
+        <f>ROUND(Waves[[#This Row],[Health]]/Waves[[#This Row],[Time]],3)</f>
+        <v>10.753</v>
+      </c>
+      <c r="R71">
+        <f>ROUND(Waves[[#This Row],[Money]]/Waves[[#This Row],[Health]],3)</f>
+        <v>0.18</v>
+      </c>
+      <c r="S71" s="5">
+        <f>Waves[[#This Row],[Money]]/Waves[[#This Row],[Time]]/(SQRT(Waves[[#This Row],[Health]]))*100</f>
+        <v>2.7371875400769583</v>
+      </c>
+      <c r="U71">
+        <f>0.0027*Waves[[#This Row],[Wave]]^2-0.0368*Waves[[#This Row],[Wave]]+0.1756</f>
+        <v>10.829599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2611AF0A-4669-45BC-A52D-B98A4F110345}">
   <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
